--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_22_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1757940.165863465</v>
+        <v>1757242.916585843</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>54.59531951061777</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>85.01667841141993</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.26599386959718</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>51.68735277039927</v>
       </c>
       <c r="V11" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="X11" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.02387166455956</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>26.30571944548975</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="V12" t="n">
-        <v>33.18271154824583</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="W12" t="n">
-        <v>120.6660675306734</v>
+        <v>52.07710755974014</v>
       </c>
       <c r="X12" t="n">
-        <v>120.6660675306734</v>
+        <v>48.14074454515193</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.064820176124925</v>
+        <v>6.064820176124897</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20.4486011844552</v>
+        <v>20.44860118445517</v>
       </c>
       <c r="T13" t="n">
-        <v>27.35924382807823</v>
+        <v>27.3592438280782</v>
       </c>
       <c r="U13" t="n">
-        <v>86.68879030851541</v>
+        <v>86.68879030851538</v>
       </c>
       <c r="V13" t="n">
-        <v>52.51976772264857</v>
+        <v>52.51976772264854</v>
       </c>
       <c r="W13" t="n">
-        <v>86.90512273541157</v>
+        <v>86.90512273541154</v>
       </c>
       <c r="X13" t="n">
-        <v>26.09177978785772</v>
+        <v>26.09177978785769</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.96677775091536</v>
+        <v>18.96677775091533</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>120.6660675306734</v>
+        <v>54.59531951061785</v>
       </c>
       <c r="H14" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>51.68735277039917</v>
       </c>
       <c r="V14" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>106.2826722810171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="U15" t="n">
-        <v>26.30571944548983</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="V15" t="n">
-        <v>33.18271154824592</v>
+        <v>33.18271154824572</v>
       </c>
       <c r="W15" t="n">
-        <v>52.07710755974026</v>
+        <v>67.03514055664643</v>
       </c>
       <c r="X15" t="n">
-        <v>6.155109602298126</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.1817666880288</v>
+        <v>6.064820176124812</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>20.44860118445528</v>
+        <v>20.44860118445508</v>
       </c>
       <c r="T16" t="n">
-        <v>27.35924382807831</v>
+        <v>27.35924382807811</v>
       </c>
       <c r="U16" t="n">
-        <v>86.68879030851549</v>
+        <v>86.68879030851529</v>
       </c>
       <c r="V16" t="n">
-        <v>52.51976772264865</v>
+        <v>52.51976772264845</v>
       </c>
       <c r="W16" t="n">
-        <v>86.90512273541165</v>
+        <v>86.90512273541145</v>
       </c>
       <c r="X16" t="n">
-        <v>26.0917797878578</v>
+        <v>26.0917797878576</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.96677775091544</v>
+        <v>18.96677775091524</v>
       </c>
     </row>
     <row r="17">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.2826722810171</v>
+        <v>106.282672281017</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.1820918452933</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>53.28678394149401</v>
+        <v>106.7707596268743</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.98158319334567</v>
+        <v>54.98158319334561</v>
       </c>
       <c r="C20" t="n">
-        <v>37.52063330087265</v>
+        <v>37.52063330087259</v>
       </c>
       <c r="D20" t="n">
-        <v>26.93078315054805</v>
+        <v>26.930783150548</v>
       </c>
       <c r="E20" t="n">
-        <v>54.17811160212688</v>
+        <v>54.17811160212682</v>
       </c>
       <c r="F20" t="n">
-        <v>79.12378727157653</v>
+        <v>79.12378727157613</v>
       </c>
       <c r="G20" t="n">
-        <v>87.04517234177803</v>
+        <v>87.04517234177797</v>
       </c>
       <c r="H20" t="n">
-        <v>6.547571371258925</v>
+        <v>6.547571371258869</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.48871024727811</v>
+        <v>21.48871024727805</v>
       </c>
       <c r="X20" t="n">
-        <v>41.97884220833413</v>
+        <v>41.97884220833407</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.48568018591868</v>
+        <v>58.48568018591862</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.2826722810171</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="T21" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>106.282672281017</v>
       </c>
       <c r="V21" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>53.28678394149428</v>
       </c>
       <c r="C22" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.28678394149401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.98158319334567</v>
+        <v>54.98158319334561</v>
       </c>
       <c r="C23" t="n">
-        <v>37.52063330087265</v>
+        <v>37.52063330087259</v>
       </c>
       <c r="D23" t="n">
-        <v>26.93078315054805</v>
+        <v>26.930783150548</v>
       </c>
       <c r="E23" t="n">
-        <v>54.17811160212688</v>
+        <v>54.17811160212682</v>
       </c>
       <c r="F23" t="n">
-        <v>79.12378727157653</v>
+        <v>79.12378727157648</v>
       </c>
       <c r="G23" t="n">
-        <v>87.04517234177803</v>
+        <v>87.04517234177798</v>
       </c>
       <c r="H23" t="n">
-        <v>6.547571371258925</v>
+        <v>6.547571371258861</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.48871024727811</v>
+        <v>21.48871024727805</v>
       </c>
       <c r="X23" t="n">
-        <v>41.97884220833413</v>
+        <v>41.97884220833407</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.48568018591868</v>
+        <v>58.48568018591862</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="C24" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>22.91105530374657</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>22.91105530374645</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>96.61875897764008</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.33409249452738</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.1820918452933</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>106.7707596268743</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>216.8811962479204</v>
+        <v>216.8811962479203</v>
       </c>
       <c r="C26" t="n">
-        <v>199.4202463554474</v>
+        <v>199.4202463554473</v>
       </c>
       <c r="D26" t="n">
-        <v>188.8303962051228</v>
+        <v>188.8303962051227</v>
       </c>
       <c r="E26" t="n">
-        <v>216.0777246567016</v>
+        <v>216.0777246567015</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0234003261513</v>
+        <v>241.0234003261512</v>
       </c>
       <c r="G26" t="n">
-        <v>248.9447853963528</v>
+        <v>248.9447853963527</v>
       </c>
       <c r="H26" t="n">
-        <v>168.4471844258337</v>
+        <v>168.4471844258336</v>
       </c>
       <c r="I26" t="n">
-        <v>25.14240747887573</v>
+        <v>25.14240747887567</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.65274767101157</v>
+        <v>31.65274767101151</v>
       </c>
       <c r="T26" t="n">
-        <v>55.03122405521644</v>
+        <v>55.03122405521638</v>
       </c>
       <c r="U26" t="n">
-        <v>85.45258295601855</v>
+        <v>85.45258295601849</v>
       </c>
       <c r="V26" t="n">
         <v>161.8996130545747</v>
@@ -2618,7 +2618,7 @@
         <v>183.3883233018528</v>
       </c>
       <c r="X26" t="n">
-        <v>203.8784552629089</v>
+        <v>203.8784552629088</v>
       </c>
       <c r="Y26" t="n">
         <v>220.3852932404934</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.073154241765</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S27" t="n">
-        <v>143.2652239481546</v>
+        <v>166.6612984182131</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0749763930296</v>
+        <v>33.22233097746938</v>
       </c>
       <c r="U27" t="n">
         <v>225.9235950466692</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>85.84233774535943</v>
+        <v>85.84233774535937</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>39.92033978791724</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.83005036174418</v>
+        <v>119.6984373521516</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.97933476637712</v>
+        <v>13.97933476637706</v>
       </c>
       <c r="C28" t="n">
-        <v>1.394175683067658</v>
+        <v>1.394175683067601</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.911670751637687</v>
+        <v>1.91167075163763</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.249144652732994</v>
+        <v>1.249144652732937</v>
       </c>
       <c r="S28" t="n">
-        <v>54.21383137007445</v>
+        <v>54.2138313700744</v>
       </c>
       <c r="T28" t="n">
-        <v>61.12447401369749</v>
+        <v>61.12447401369743</v>
       </c>
       <c r="U28" t="n">
-        <v>120.4540204941347</v>
+        <v>120.4540204941346</v>
       </c>
       <c r="V28" t="n">
-        <v>86.28499790826783</v>
+        <v>86.28499790826777</v>
       </c>
       <c r="W28" t="n">
         <v>120.6703529210308</v>
       </c>
       <c r="X28" t="n">
-        <v>59.85700997347698</v>
+        <v>59.85700997347692</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.73200793653461</v>
+        <v>52.73200793653456</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>216.8811962479203</v>
       </c>
       <c r="C29" t="n">
-        <v>199.4202463554472</v>
+        <v>199.4202463554473</v>
       </c>
       <c r="D29" t="n">
-        <v>188.8303962051226</v>
+        <v>188.8303962051227</v>
       </c>
       <c r="E29" t="n">
         <v>216.0777246567015</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0234003261511</v>
+        <v>241.0234003261512</v>
       </c>
       <c r="G29" t="n">
-        <v>248.9447853963526</v>
+        <v>248.9447853963527</v>
       </c>
       <c r="H29" t="n">
-        <v>168.4471844258335</v>
+        <v>168.4471844258336</v>
       </c>
       <c r="I29" t="n">
-        <v>25.14240747887558</v>
+        <v>25.14240747887567</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.65274767101143</v>
+        <v>31.65274767101151</v>
       </c>
       <c r="T29" t="n">
-        <v>55.0312240552163</v>
+        <v>55.03122405521638</v>
       </c>
       <c r="U29" t="n">
-        <v>85.4525829560184</v>
+        <v>85.45258295601849</v>
       </c>
       <c r="V29" t="n">
-        <v>161.8996130545746</v>
+        <v>161.8996130545747</v>
       </c>
       <c r="W29" t="n">
-        <v>183.3883233018527</v>
+        <v>183.3883233018528</v>
       </c>
       <c r="X29" t="n">
-        <v>203.8784552629087</v>
+        <v>203.8784552629088</v>
       </c>
       <c r="Y29" t="n">
-        <v>220.3852932404933</v>
+        <v>220.3852932404934</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.073154241765</v>
       </c>
       <c r="H30" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>83.37161697727053</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8086530026528296</v>
+        <v>166.6612984182131</v>
       </c>
       <c r="T30" t="n">
-        <v>33.2223309774693</v>
+        <v>199.0749763930296</v>
       </c>
       <c r="U30" t="n">
-        <v>116.0795895385161</v>
+        <v>225.9235950466692</v>
       </c>
       <c r="V30" t="n">
-        <v>66.94794173386495</v>
+        <v>66.94794173386504</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>126.519711862669</v>
       </c>
       <c r="X30" t="n">
-        <v>39.92033978791716</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.97933476637698</v>
+        <v>13.97933476637706</v>
       </c>
       <c r="C31" t="n">
-        <v>1.394175683067516</v>
+        <v>1.394175683067601</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.911670751637545</v>
+        <v>1.91167075163763</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.249144652732852</v>
+        <v>1.249144652732937</v>
       </c>
       <c r="S31" t="n">
-        <v>54.21383137007431</v>
+        <v>54.2138313700744</v>
       </c>
       <c r="T31" t="n">
-        <v>61.12447401369734</v>
+        <v>61.12447401369743</v>
       </c>
       <c r="U31" t="n">
-        <v>120.4540204941345</v>
+        <v>120.4540204941346</v>
       </c>
       <c r="V31" t="n">
-        <v>86.28499790826768</v>
+        <v>86.28499790826777</v>
       </c>
       <c r="W31" t="n">
-        <v>120.6703529210307</v>
+        <v>120.6703529210308</v>
       </c>
       <c r="X31" t="n">
-        <v>59.85700997347683</v>
+        <v>59.85700997347692</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.73200793653447</v>
+        <v>52.73200793653456</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>216.0777246567015</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0234003261512</v>
+        <v>241.0234003261511</v>
       </c>
       <c r="G32" t="n">
-        <v>248.9447853963527</v>
+        <v>248.9447853963526</v>
       </c>
       <c r="H32" t="n">
-        <v>168.4471844258336</v>
+        <v>168.4471844258335</v>
       </c>
       <c r="I32" t="n">
-        <v>25.14240747887564</v>
+        <v>25.14240747887561</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.6527476710115</v>
+        <v>31.65274767101147</v>
       </c>
       <c r="T32" t="n">
-        <v>55.03122405521634</v>
+        <v>55.03122405521631</v>
       </c>
       <c r="U32" t="n">
-        <v>85.45258295601846</v>
+        <v>85.45258295601843</v>
       </c>
       <c r="V32" t="n">
         <v>161.8996130545746</v>
       </c>
       <c r="W32" t="n">
-        <v>183.3883233018528</v>
+        <v>183.3883233018527</v>
       </c>
       <c r="X32" t="n">
-        <v>203.8784552629088</v>
+        <v>203.8784552629087</v>
       </c>
       <c r="Y32" t="n">
         <v>220.3852932404933</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0.6805382343070505</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>6.85585357275545</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>33.58899487357461</v>
+        <v>137.073154241765</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I33" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8086530026528864</v>
+        <v>166.6612984182131</v>
       </c>
       <c r="T33" t="n">
-        <v>33.22233097746935</v>
+        <v>199.0749763930296</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9235950466692</v>
+        <v>177.7600945857261</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>39.83005036174407</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.97933476637704</v>
+        <v>13.97933476637701</v>
       </c>
       <c r="C34" t="n">
-        <v>1.394175683067573</v>
+        <v>1.394175683067544</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.911670751637601</v>
+        <v>1.911670751637573</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.249144652732909</v>
+        <v>1.24914465273288</v>
       </c>
       <c r="S34" t="n">
-        <v>54.21383137007437</v>
+        <v>54.21383137007434</v>
       </c>
       <c r="T34" t="n">
-        <v>61.1244740136974</v>
+        <v>61.12447401369737</v>
       </c>
       <c r="U34" t="n">
         <v>120.4540204941346</v>
       </c>
       <c r="V34" t="n">
-        <v>86.28499790826774</v>
+        <v>86.28499790826771</v>
       </c>
       <c r="W34" t="n">
         <v>120.6703529210307</v>
       </c>
       <c r="X34" t="n">
-        <v>59.85700997347689</v>
+        <v>59.85700997347686</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.73200793653453</v>
+        <v>52.7320079365345</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.37847638420484</v>
+        <v>23.37847638420486</v>
       </c>
       <c r="U35" t="n">
-        <v>53.79983528500696</v>
+        <v>53.79983528500697</v>
       </c>
       <c r="V35" t="n">
         <v>130.2468653835631</v>
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>105.3269500363513</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6612984182131</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0749763930296</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>243.7480332500947</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.177302690732603</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>46.75796939947011</v>
+        <v>112.3253683843029</v>
       </c>
       <c r="G39" t="n">
-        <v>137.073154241765</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.177302690732603</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.073154241765</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6612984182131</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.569583306457772</v>
+        <v>199.0749763930296</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9235950466692</v>
+        <v>174.5566824054685</v>
       </c>
       <c r="V42" t="n">
-        <v>168.5350353666808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.177302690732517</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>86.97897594908777</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.073154241765</v>
       </c>
       <c r="H45" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>166.6612984182131</v>
@@ -4116,13 +4116,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>54.18959007434782</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>69.55069481918103</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.52871814126189</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="C11" t="n">
-        <v>95.52871814126189</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="D11" t="n">
-        <v>95.52871814126189</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="E11" t="n">
-        <v>95.52871814126189</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="F11" t="n">
-        <v>95.52871814126189</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="G11" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H11" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I11" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J11" t="n">
-        <v>40.28189099595819</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K11" t="n">
-        <v>40.28189099595819</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="L11" t="n">
-        <v>80.15507692389326</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="M11" t="n">
-        <v>199.61448377926</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="N11" t="n">
-        <v>199.61448377926</v>
+        <v>248.572099113187</v>
       </c>
       <c r="O11" t="n">
-        <v>319.0738906346267</v>
+        <v>368.0315059685536</v>
       </c>
       <c r="P11" t="n">
-        <v>438.5332974899933</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q11" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R11" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S11" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T11" t="n">
-        <v>461.1834682342117</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="U11" t="n">
-        <v>461.1834682342117</v>
+        <v>430.4548228798657</v>
       </c>
       <c r="V11" t="n">
-        <v>339.2985515365618</v>
+        <v>430.4548228798657</v>
       </c>
       <c r="W11" t="n">
-        <v>217.4136348389118</v>
+        <v>308.5699061822158</v>
       </c>
       <c r="X11" t="n">
-        <v>95.52871814126189</v>
+        <v>186.684989484566</v>
       </c>
       <c r="Y11" t="n">
-        <v>95.52871814126189</v>
+        <v>186.684989484566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I12" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J12" t="n">
-        <v>34.20209338398772</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K12" t="n">
-        <v>153.6615002393544</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="L12" t="n">
-        <v>243.7454564119603</v>
+        <v>248.572099113187</v>
       </c>
       <c r="M12" t="n">
-        <v>243.7454564119603</v>
+        <v>368.0315059685536</v>
       </c>
       <c r="N12" t="n">
-        <v>243.7454564119603</v>
+        <v>368.0315059685536</v>
       </c>
       <c r="O12" t="n">
-        <v>363.204863267327</v>
+        <v>379.1032377449019</v>
       </c>
       <c r="P12" t="n">
-        <v>482.6642701226937</v>
+        <v>379.1032377449019</v>
       </c>
       <c r="Q12" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R12" t="n">
-        <v>398.4505156001982</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S12" t="n">
-        <v>398.4505156001982</v>
+        <v>360.7793534250434</v>
       </c>
       <c r="T12" t="n">
-        <v>398.4505156001982</v>
+        <v>360.7793534250434</v>
       </c>
       <c r="U12" t="n">
-        <v>371.8790818168753</v>
+        <v>238.8944367273936</v>
       </c>
       <c r="V12" t="n">
-        <v>338.3611913641017</v>
+        <v>117.0095200297437</v>
       </c>
       <c r="W12" t="n">
-        <v>216.4762746664518</v>
+        <v>64.40638108051127</v>
       </c>
       <c r="X12" t="n">
-        <v>94.59135796880184</v>
+        <v>15.77936638843861</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.46527698281707</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C13" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D13" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E13" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F13" t="n">
-        <v>34.26052208431356</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G13" t="n">
-        <v>34.26052208431356</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H13" t="n">
-        <v>34.26052208431356</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I13" t="n">
-        <v>34.26052208431356</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26052208431356</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K13" t="n">
-        <v>38.28452543551786</v>
+        <v>13.67728875365817</v>
       </c>
       <c r="L13" t="n">
-        <v>98.96029891215719</v>
+        <v>74.3530622302975</v>
       </c>
       <c r="M13" t="n">
-        <v>173.3235177665841</v>
+        <v>148.7162810847244</v>
       </c>
       <c r="N13" t="n">
-        <v>251.3531619084725</v>
+        <v>226.7459252266128</v>
       </c>
       <c r="O13" t="n">
-        <v>307.4098722228916</v>
+        <v>282.8026355410319</v>
       </c>
       <c r="P13" t="n">
-        <v>331.8553897639509</v>
+        <v>307.2481530820912</v>
       </c>
       <c r="Q13" t="n">
-        <v>331.8553897639509</v>
+        <v>331.8553897639507</v>
       </c>
       <c r="R13" t="n">
-        <v>331.8553897639509</v>
+        <v>331.8553897639507</v>
       </c>
       <c r="S13" t="n">
-        <v>311.20023705238</v>
+        <v>311.2002370523798</v>
       </c>
       <c r="T13" t="n">
-        <v>283.5646372260383</v>
+        <v>283.5646372260382</v>
       </c>
       <c r="U13" t="n">
-        <v>196.0002025709722</v>
+        <v>196.0002025709721</v>
       </c>
       <c r="V13" t="n">
-        <v>142.9499321440545</v>
+        <v>142.9499321440544</v>
       </c>
       <c r="W13" t="n">
-        <v>55.16697988606305</v>
+        <v>55.16697988606298</v>
       </c>
       <c r="X13" t="n">
-        <v>28.81164676701484</v>
+        <v>28.8116467670148</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253.4231187977538</v>
+        <v>186.6849894845662</v>
       </c>
       <c r="C14" t="n">
-        <v>253.4231187977538</v>
+        <v>64.80007278691635</v>
       </c>
       <c r="D14" t="n">
-        <v>253.4231187977538</v>
+        <v>64.80007278691635</v>
       </c>
       <c r="E14" t="n">
-        <v>253.4231187977538</v>
+        <v>64.80007278691635</v>
       </c>
       <c r="F14" t="n">
-        <v>253.4231187977538</v>
+        <v>64.80007278691635</v>
       </c>
       <c r="G14" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H14" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I14" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J14" t="n">
-        <v>40.28189099595819</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K14" t="n">
-        <v>124.2860495565936</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="L14" t="n">
-        <v>124.2860495565936</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="M14" t="n">
-        <v>243.7454564119603</v>
+        <v>243.74545641196</v>
       </c>
       <c r="N14" t="n">
-        <v>363.204863267327</v>
+        <v>243.74545641196</v>
       </c>
       <c r="O14" t="n">
-        <v>482.6642701226937</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="P14" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q14" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R14" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S14" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T14" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="U14" t="n">
-        <v>482.6642701226937</v>
+        <v>430.4548228798658</v>
       </c>
       <c r="V14" t="n">
-        <v>360.7793534250438</v>
+        <v>308.569906182216</v>
       </c>
       <c r="W14" t="n">
-        <v>360.7793534250438</v>
+        <v>186.6849894845662</v>
       </c>
       <c r="X14" t="n">
-        <v>360.7793534250438</v>
+        <v>186.6849894845662</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.4231187977538</v>
+        <v>186.6849894845662</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G15" t="n">
-        <v>201.2819646939297</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H15" t="n">
-        <v>90.55034085511249</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I15" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J15" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K15" t="n">
-        <v>9.653285402453875</v>
+        <v>124.2860495565935</v>
       </c>
       <c r="L15" t="n">
-        <v>129.1126922578206</v>
+        <v>124.2860495565935</v>
       </c>
       <c r="M15" t="n">
-        <v>248.5720991131873</v>
+        <v>243.74545641196</v>
       </c>
       <c r="N15" t="n">
-        <v>248.5720991131873</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="O15" t="n">
-        <v>259.6438308895358</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="P15" t="n">
-        <v>379.1032377449025</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q15" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R15" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S15" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T15" t="n">
-        <v>482.6642701226937</v>
+        <v>360.7793534250434</v>
       </c>
       <c r="U15" t="n">
-        <v>456.0928363393706</v>
+        <v>238.8944367273936</v>
       </c>
       <c r="V15" t="n">
-        <v>422.574945886597</v>
+        <v>205.3765462746201</v>
       </c>
       <c r="W15" t="n">
-        <v>369.9718069373644</v>
+        <v>137.6642830860883</v>
       </c>
       <c r="X15" t="n">
-        <v>363.7545245108006</v>
+        <v>15.77936638843852</v>
       </c>
       <c r="Y15" t="n">
-        <v>323.1668813915796</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C16" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D16" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E16" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F16" t="n">
-        <v>34.26052208431418</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G16" t="n">
-        <v>34.26052208431418</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H16" t="n">
-        <v>34.26052208431418</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I16" t="n">
-        <v>34.26052208431418</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J16" t="n">
-        <v>34.26052208431418</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K16" t="n">
-        <v>38.28452543551849</v>
+        <v>13.67728875365817</v>
       </c>
       <c r="L16" t="n">
-        <v>98.96029891215781</v>
+        <v>74.3530622302975</v>
       </c>
       <c r="M16" t="n">
-        <v>173.3235177665848</v>
+        <v>148.7162810847244</v>
       </c>
       <c r="N16" t="n">
-        <v>251.3531619084732</v>
+        <v>226.7459252266128</v>
       </c>
       <c r="O16" t="n">
-        <v>307.4098722228923</v>
+        <v>282.8026355410319</v>
       </c>
       <c r="P16" t="n">
-        <v>331.8553897639515</v>
+        <v>331.8553897639501</v>
       </c>
       <c r="Q16" t="n">
-        <v>331.8553897639515</v>
+        <v>331.8553897639501</v>
       </c>
       <c r="R16" t="n">
-        <v>331.8553897639515</v>
+        <v>331.8553897639501</v>
       </c>
       <c r="S16" t="n">
-        <v>311.2002370523805</v>
+        <v>311.2002370523793</v>
       </c>
       <c r="T16" t="n">
-        <v>283.5646372260388</v>
+        <v>283.5646372260377</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0002025709726</v>
+        <v>196.0002025709718</v>
       </c>
       <c r="V16" t="n">
-        <v>142.9499321440548</v>
+        <v>142.9499321440542</v>
       </c>
       <c r="W16" t="n">
-        <v>55.16697988606322</v>
+        <v>55.1669798860628</v>
       </c>
       <c r="X16" t="n">
-        <v>28.81164676701493</v>
+        <v>28.81164676701471</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.942233925849</v>
+        <v>303.9422339258487</v>
       </c>
       <c r="C17" t="n">
-        <v>266.0426043290079</v>
+        <v>266.0426043290075</v>
       </c>
       <c r="D17" t="n">
-        <v>238.839793065828</v>
+        <v>238.8397930658276</v>
       </c>
       <c r="E17" t="n">
-        <v>184.1144278111544</v>
+        <v>184.1144278111541</v>
       </c>
       <c r="F17" t="n">
-        <v>104.1914103651175</v>
+        <v>104.1914103651172</v>
       </c>
       <c r="G17" t="n">
-        <v>16.26699385827097</v>
+        <v>16.26699385827096</v>
       </c>
       <c r="H17" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I17" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J17" t="n">
-        <v>40.28189099595819</v>
+        <v>40.28189099595818</v>
       </c>
       <c r="K17" t="n">
-        <v>159.7412978513249</v>
+        <v>124.2860495565935</v>
       </c>
       <c r="L17" t="n">
-        <v>159.7412978513249</v>
+        <v>124.2860495565935</v>
       </c>
       <c r="M17" t="n">
-        <v>279.2007047066916</v>
+        <v>243.74545641196</v>
       </c>
       <c r="N17" t="n">
-        <v>279.2007047066916</v>
+        <v>243.74545641196</v>
       </c>
       <c r="O17" t="n">
-        <v>319.0738906346267</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="P17" t="n">
-        <v>438.5332974899933</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q17" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R17" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S17" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T17" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="U17" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="V17" t="n">
-        <v>482.6642701226938</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="W17" t="n">
-        <v>460.9585021961504</v>
+        <v>460.9585021961499</v>
       </c>
       <c r="X17" t="n">
-        <v>418.5556312786413</v>
+        <v>418.5556312786408</v>
       </c>
       <c r="Y17" t="n">
-        <v>359.4791866464002</v>
+        <v>359.4791866463998</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G18" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H18" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I18" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J18" t="n">
-        <v>34.20209338398772</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K18" t="n">
-        <v>34.20209338398772</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="L18" t="n">
-        <v>153.6615002393544</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="M18" t="n">
-        <v>153.6615002393544</v>
+        <v>248.572099113187</v>
       </c>
       <c r="N18" t="n">
-        <v>273.1209070947211</v>
+        <v>248.572099113187</v>
       </c>
       <c r="O18" t="n">
-        <v>392.5803139500878</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="P18" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q18" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R18" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S18" t="n">
-        <v>375.3080354954037</v>
+        <v>375.3080354954033</v>
       </c>
       <c r="T18" t="n">
-        <v>375.3080354954037</v>
+        <v>375.3080354954033</v>
       </c>
       <c r="U18" t="n">
-        <v>253.4231187977538</v>
+        <v>253.4231187977535</v>
       </c>
       <c r="V18" t="n">
-        <v>253.4231187977538</v>
+        <v>253.4231187977535</v>
       </c>
       <c r="W18" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="X18" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K19" t="n">
-        <v>13.67728875365818</v>
+        <v>13.67728875365817</v>
       </c>
       <c r="L19" t="n">
         <v>74.3530622302975</v>
@@ -5692,31 +5692,31 @@
         <v>307.2481530820912</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="R19" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="S19" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="T19" t="n">
-        <v>253.4231187977538</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="U19" t="n">
-        <v>253.4231187977538</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="V19" t="n">
-        <v>253.4231187977538</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="W19" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="X19" t="n">
-        <v>9.653285402453875</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>303.9422339258492</v>
+        <v>303.9422339258486</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0426043290081</v>
+        <v>266.0426043290076</v>
       </c>
       <c r="D20" t="n">
-        <v>238.8397930658282</v>
+        <v>238.8397930658278</v>
       </c>
       <c r="E20" t="n">
-        <v>184.1144278111547</v>
+        <v>184.1144278111543</v>
       </c>
       <c r="F20" t="n">
-        <v>104.1914103651179</v>
+        <v>104.1914103651172</v>
       </c>
       <c r="G20" t="n">
-        <v>16.26699385827097</v>
+        <v>16.2669938582709</v>
       </c>
       <c r="H20" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I20" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J20" t="n">
-        <v>40.28189099595819</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K20" t="n">
-        <v>40.28189099595819</v>
+        <v>124.2860495565935</v>
       </c>
       <c r="L20" t="n">
-        <v>40.28189099595819</v>
+        <v>243.74545641196</v>
       </c>
       <c r="M20" t="n">
-        <v>159.7412978513249</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="N20" t="n">
-        <v>243.7454564119603</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="O20" t="n">
-        <v>363.204863267327</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="P20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="U20" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="V20" t="n">
-        <v>482.6642701226938</v>
+        <v>482.6642701226933</v>
       </c>
       <c r="W20" t="n">
-        <v>460.9585021961504</v>
+        <v>460.9585021961498</v>
       </c>
       <c r="X20" t="n">
-        <v>418.5556312786414</v>
+        <v>418.5556312786406</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.4791866464004</v>
+        <v>359.4791866463997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C21" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D21" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E21" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F21" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G21" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H21" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I21" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J21" t="n">
-        <v>34.20209338398772</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K21" t="n">
-        <v>140.1844240341691</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="L21" t="n">
-        <v>140.1844240341691</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="M21" t="n">
-        <v>140.1844240341691</v>
+        <v>248.572099113187</v>
       </c>
       <c r="N21" t="n">
-        <v>259.6438308895358</v>
+        <v>368.0315059685536</v>
       </c>
       <c r="O21" t="n">
-        <v>379.1032377449025</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="P21" t="n">
-        <v>379.1032377449025</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q21" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R21" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S21" t="n">
-        <v>375.3080354954037</v>
+        <v>360.7793534250434</v>
       </c>
       <c r="T21" t="n">
-        <v>253.4231187977538</v>
+        <v>238.8944367273936</v>
       </c>
       <c r="U21" t="n">
-        <v>253.4231187977538</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="V21" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="W21" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="X21" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.5382021001038</v>
+        <v>131.5382021001037</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253.4231187977538</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C22" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D22" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E22" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F22" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G22" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H22" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I22" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J22" t="n">
-        <v>9.653285402453875</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K22" t="n">
-        <v>13.67728875365818</v>
+        <v>13.67728875365817</v>
       </c>
       <c r="L22" t="n">
         <v>74.3530622302975</v>
@@ -5941,19 +5941,19 @@
         <v>307.2481530820912</v>
       </c>
       <c r="U22" t="n">
-        <v>307.2481530820912</v>
+        <v>185.3632363844413</v>
       </c>
       <c r="V22" t="n">
-        <v>307.2481530820912</v>
+        <v>63.47831968679152</v>
       </c>
       <c r="W22" t="n">
-        <v>307.2481530820912</v>
+        <v>63.47831968679152</v>
       </c>
       <c r="X22" t="n">
-        <v>307.2481530820912</v>
+        <v>63.47831968679152</v>
       </c>
       <c r="Y22" t="n">
-        <v>253.4231187977538</v>
+        <v>63.47831968679152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.9422339258487</v>
+        <v>303.9422339258485</v>
       </c>
       <c r="C23" t="n">
-        <v>266.0426043290078</v>
+        <v>266.0426043290075</v>
       </c>
       <c r="D23" t="n">
-        <v>238.839793065828</v>
+        <v>238.8397930658278</v>
       </c>
       <c r="E23" t="n">
-        <v>184.1144278111544</v>
+        <v>184.1144278111542</v>
       </c>
       <c r="F23" t="n">
-        <v>104.1914103651174</v>
+        <v>104.1914103651173</v>
       </c>
       <c r="G23" t="n">
-        <v>16.26699385827097</v>
+        <v>16.2669938582709</v>
       </c>
       <c r="H23" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I23" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J23" t="n">
-        <v>40.28189099595819</v>
+        <v>40.28189099595818</v>
       </c>
       <c r="K23" t="n">
-        <v>40.28189099595819</v>
+        <v>40.28189099595818</v>
       </c>
       <c r="L23" t="n">
-        <v>40.28189099595819</v>
+        <v>159.7412978513248</v>
       </c>
       <c r="M23" t="n">
-        <v>80.15507692389322</v>
+        <v>279.2007047066913</v>
       </c>
       <c r="N23" t="n">
-        <v>199.6144837792599</v>
+        <v>319.0738906346263</v>
       </c>
       <c r="O23" t="n">
-        <v>319.0738906346266</v>
+        <v>438.5332974899928</v>
       </c>
       <c r="P23" t="n">
-        <v>438.5332974899933</v>
+        <v>438.5332974899928</v>
       </c>
       <c r="Q23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="S23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="T23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="U23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="V23" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226934</v>
       </c>
       <c r="W23" t="n">
-        <v>460.9585021961502</v>
+        <v>460.9585021961499</v>
       </c>
       <c r="X23" t="n">
-        <v>418.5556312786409</v>
+        <v>418.5556312786407</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.4791866463999</v>
+        <v>359.4791866463997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.4231187977537</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C24" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D24" t="n">
-        <v>131.5382021001038</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E24" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F24" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G24" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H24" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I24" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J24" t="n">
-        <v>20.72501717880233</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K24" t="n">
-        <v>140.184424034169</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="L24" t="n">
-        <v>140.184424034169</v>
+        <v>129.1126922578204</v>
       </c>
       <c r="M24" t="n">
-        <v>140.184424034169</v>
+        <v>243.74545641196</v>
       </c>
       <c r="N24" t="n">
-        <v>140.184424034169</v>
+        <v>363.2048632673266</v>
       </c>
       <c r="O24" t="n">
-        <v>259.6438308895357</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="P24" t="n">
-        <v>379.1032377449024</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="Q24" t="n">
-        <v>482.6642701226937</v>
+        <v>482.6642701226932</v>
       </c>
       <c r="R24" t="n">
-        <v>398.4505156001982</v>
+        <v>398.4505156001977</v>
       </c>
       <c r="S24" t="n">
-        <v>398.4505156001982</v>
+        <v>398.4505156001977</v>
       </c>
       <c r="T24" t="n">
-        <v>398.4505156001982</v>
+        <v>276.5655989025479</v>
       </c>
       <c r="U24" t="n">
-        <v>398.4505156001982</v>
+        <v>276.5655989025479</v>
       </c>
       <c r="V24" t="n">
-        <v>375.3080354954037</v>
+        <v>276.5655989025479</v>
       </c>
       <c r="W24" t="n">
-        <v>253.4231187977537</v>
+        <v>276.5655989025479</v>
       </c>
       <c r="X24" t="n">
-        <v>253.4231187977537</v>
+        <v>253.4231187977535</v>
       </c>
       <c r="Y24" t="n">
-        <v>253.4231187977537</v>
+        <v>131.5382021001037</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.2481530820912</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="C25" t="n">
-        <v>185.3632363844412</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="D25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="E25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="F25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="G25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="H25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="I25" t="n">
-        <v>87.76853034642093</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="J25" t="n">
-        <v>9.653285402453873</v>
+        <v>9.653285402453864</v>
       </c>
       <c r="K25" t="n">
-        <v>13.67728875365818</v>
+        <v>13.67728875365817</v>
       </c>
       <c r="L25" t="n">
         <v>74.3530622302975</v>
@@ -6166,31 +6166,31 @@
         <v>307.2481530820912</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="R25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="S25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="T25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="U25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="V25" t="n">
-        <v>307.2481530820912</v>
+        <v>239.3874542484616</v>
       </c>
       <c r="W25" t="n">
-        <v>307.2481530820912</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="X25" t="n">
-        <v>307.2481530820912</v>
+        <v>131.5382021001037</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.2481530820912</v>
+        <v>9.653285402453864</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1351.327080561003</v>
       </c>
       <c r="C26" t="n">
-        <v>1149.892488282773</v>
+        <v>1149.892488282774</v>
       </c>
       <c r="D26" t="n">
-        <v>959.1547143382049</v>
+        <v>959.1547143382052</v>
       </c>
       <c r="E26" t="n">
-        <v>740.8943864021427</v>
+        <v>740.894386402143</v>
       </c>
       <c r="F26" t="n">
-        <v>497.4364062747171</v>
+        <v>497.4364062747175</v>
       </c>
       <c r="G26" t="n">
-        <v>245.977027086482</v>
+        <v>245.9770270864824</v>
       </c>
       <c r="H26" t="n">
-        <v>75.82835594927627</v>
+        <v>75.82835594927622</v>
       </c>
       <c r="I26" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J26" t="n">
-        <v>245.2547093134016</v>
+        <v>81.06059035199701</v>
       </c>
       <c r="K26" t="n">
-        <v>576.0979726602168</v>
+        <v>411.9038536988123</v>
       </c>
       <c r="L26" t="n">
-        <v>999.3117188993142</v>
+        <v>835.1175999379097</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.321626419249</v>
+        <v>1304.127507457845</v>
       </c>
       <c r="N26" t="n">
-        <v>1870.947183176115</v>
+        <v>1706.75306421471</v>
       </c>
       <c r="O26" t="n">
-        <v>2268.623362124755</v>
+        <v>2104.42924316335</v>
       </c>
       <c r="P26" t="n">
         <v>2430.220515617956</v>
       </c>
       <c r="Q26" t="n">
-        <v>2474.351488250657</v>
+        <v>2474.351488250656</v>
       </c>
       <c r="R26" t="n">
         <v>2521.599237924635</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>671.5146102636648</v>
+        <v>818.0491682367798</v>
       </c>
       <c r="C27" t="n">
-        <v>497.0615809825379</v>
+        <v>643.5961389556528</v>
       </c>
       <c r="D27" t="n">
-        <v>348.1271713212866</v>
+        <v>494.6617292944016</v>
       </c>
       <c r="E27" t="n">
-        <v>188.8897163158311</v>
+        <v>335.4242742889461</v>
       </c>
       <c r="F27" t="n">
-        <v>188.8897163158311</v>
+        <v>188.889716315831</v>
       </c>
       <c r="G27" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="H27" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="I27" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J27" t="n">
         <v>74.98079274002654</v>
@@ -6327,28 +6327,28 @@
         <v>1983.679195614904</v>
       </c>
       <c r="R27" t="n">
-        <v>1983.679195614904</v>
+        <v>1899.465441092409</v>
       </c>
       <c r="S27" t="n">
-        <v>1838.966848192526</v>
+        <v>1731.120695215426</v>
       </c>
       <c r="T27" t="n">
-        <v>1637.881013452092</v>
+        <v>1697.562785137174</v>
       </c>
       <c r="U27" t="n">
-        <v>1409.6753618898</v>
+        <v>1469.357133574882</v>
       </c>
       <c r="V27" t="n">
-        <v>1174.523253658057</v>
+        <v>1234.205025343139</v>
       </c>
       <c r="W27" t="n">
-        <v>1087.813821592038</v>
+        <v>1147.495593277119</v>
       </c>
       <c r="X27" t="n">
-        <v>879.9623213865048</v>
+        <v>1107.172017733769</v>
       </c>
       <c r="Y27" t="n">
-        <v>839.7299472837328</v>
+        <v>986.2645052568478</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.84024302421762</v>
+        <v>51.84024302421755</v>
       </c>
       <c r="C28" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="D28" t="n">
-        <v>67.49678543186705</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="E28" t="n">
-        <v>86.72128137316815</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="F28" t="n">
-        <v>106.9485627918708</v>
+        <v>52.36296531570243</v>
       </c>
       <c r="G28" t="n">
-        <v>105.017582234661</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="H28" t="n">
-        <v>110.6018898231788</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="I28" t="n">
-        <v>110.6018898231788</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="J28" t="n">
-        <v>198.2352572150013</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="K28" t="n">
-        <v>202.2592605662056</v>
+        <v>224.2344146596195</v>
       </c>
       <c r="L28" t="n">
-        <v>262.9350340428449</v>
+        <v>284.9101881362588</v>
       </c>
       <c r="M28" t="n">
-        <v>337.2982528972718</v>
+        <v>359.2734069906858</v>
       </c>
       <c r="N28" t="n">
-        <v>415.3278970391602</v>
+        <v>437.3030511325742</v>
       </c>
       <c r="O28" t="n">
-        <v>471.3846073535793</v>
+        <v>506.039336071146</v>
       </c>
       <c r="P28" t="n">
-        <v>530.4848536122059</v>
+        <v>530.4848536122053</v>
       </c>
       <c r="Q28" t="n">
-        <v>628.1687016467702</v>
+        <v>628.1687016467695</v>
       </c>
       <c r="R28" t="n">
-        <v>626.9069393712823</v>
+        <v>626.9069393712816</v>
       </c>
       <c r="S28" t="n">
-        <v>572.1454935429242</v>
+        <v>572.1454935429236</v>
       </c>
       <c r="T28" t="n">
-        <v>510.4036005997954</v>
+        <v>510.403600599795</v>
       </c>
       <c r="U28" t="n">
-        <v>388.7328728279422</v>
+        <v>388.7328728279418</v>
       </c>
       <c r="V28" t="n">
-        <v>301.5763092842374</v>
+        <v>301.576309284237</v>
       </c>
       <c r="W28" t="n">
-        <v>179.6870639094587</v>
+        <v>179.6870639094585</v>
       </c>
       <c r="X28" t="n">
-        <v>119.2254376736234</v>
+        <v>119.2254376736232</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.96078319227531</v>
+        <v>65.96078319227519</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1351.327080561003</v>
       </c>
       <c r="C29" t="n">
-        <v>1149.892488282773</v>
+        <v>1149.892488282774</v>
       </c>
       <c r="D29" t="n">
-        <v>959.1547143382047</v>
+        <v>959.1547143382052</v>
       </c>
       <c r="E29" t="n">
-        <v>740.8943864021426</v>
+        <v>740.894386402143</v>
       </c>
       <c r="F29" t="n">
-        <v>497.4364062747172</v>
+        <v>497.4364062747175</v>
       </c>
       <c r="G29" t="n">
-        <v>245.9770270864819</v>
+        <v>245.9770270864824</v>
       </c>
       <c r="H29" t="n">
-        <v>75.82835594927613</v>
+        <v>75.82835594927622</v>
       </c>
       <c r="I29" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J29" t="n">
-        <v>245.2547093134017</v>
+        <v>245.2547093134016</v>
       </c>
       <c r="K29" t="n">
-        <v>576.0979726602171</v>
+        <v>519.4133813089884</v>
       </c>
       <c r="L29" t="n">
-        <v>999.3117188993147</v>
+        <v>942.6271275480858</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.321626419249</v>
+        <v>1411.637035068021</v>
       </c>
       <c r="N29" t="n">
-        <v>1763.437655565939</v>
+        <v>1706.75306421471</v>
       </c>
       <c r="O29" t="n">
-        <v>2161.113834514579</v>
+        <v>1940.235124201946</v>
       </c>
       <c r="P29" t="n">
-        <v>2430.220515617956</v>
+        <v>2266.026396656551</v>
       </c>
       <c r="Q29" t="n">
-        <v>2474.351488250657</v>
+        <v>2474.351488250656</v>
       </c>
       <c r="R29" t="n">
         <v>2521.599237924635</v>
@@ -6494,19 +6494,19 @@
         <v>2434.039670524405</v>
       </c>
       <c r="U29" t="n">
-        <v>2347.72393016479</v>
+        <v>2347.723930164791</v>
       </c>
       <c r="V29" t="n">
-        <v>2184.188967483401</v>
+        <v>2184.188967483403</v>
       </c>
       <c r="W29" t="n">
-        <v>1998.94823687547</v>
+        <v>1998.948236875471</v>
       </c>
       <c r="X29" t="n">
-        <v>1793.010403276572</v>
+        <v>1793.010403276573</v>
       </c>
       <c r="Y29" t="n">
-        <v>1570.398995962942</v>
+        <v>1570.398995962943</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1009.677847528256</v>
+        <v>522.5802006024136</v>
       </c>
       <c r="C30" t="n">
-        <v>835.2248182471287</v>
+        <v>348.1271713212865</v>
       </c>
       <c r="D30" t="n">
-        <v>686.2904085858775</v>
+        <v>348.1271713212865</v>
       </c>
       <c r="E30" t="n">
-        <v>527.0529535804219</v>
+        <v>188.889716315831</v>
       </c>
       <c r="F30" t="n">
-        <v>380.5183956073068</v>
+        <v>188.889716315831</v>
       </c>
       <c r="G30" t="n">
-        <v>242.0606640499685</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="H30" t="n">
-        <v>131.3290402111513</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="I30" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J30" t="n">
         <v>74.98079274002654</v>
@@ -6567,25 +6567,25 @@
         <v>1899.465441092409</v>
       </c>
       <c r="S30" t="n">
-        <v>1898.648619877608</v>
+        <v>1731.120695215426</v>
       </c>
       <c r="T30" t="n">
-        <v>1865.090709799356</v>
+        <v>1530.034860474992</v>
       </c>
       <c r="U30" t="n">
-        <v>1747.83859915439</v>
+        <v>1301.8292089127</v>
       </c>
       <c r="V30" t="n">
-        <v>1680.21441558483</v>
+        <v>1234.205025343139</v>
       </c>
       <c r="W30" t="n">
-        <v>1425.977058856628</v>
+        <v>1106.407336592968</v>
       </c>
       <c r="X30" t="n">
-        <v>1385.653483313278</v>
+        <v>898.5558363874354</v>
       </c>
       <c r="Y30" t="n">
-        <v>1177.893184548324</v>
+        <v>690.7955376224816</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.77122358142712</v>
+        <v>51.84024302421755</v>
       </c>
       <c r="C31" t="n">
-        <v>52.36296531570235</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="D31" t="n">
-        <v>52.36296531570235</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="E31" t="n">
-        <v>52.36296531570235</v>
+        <v>52.36296531570243</v>
       </c>
       <c r="F31" t="n">
-        <v>52.36296531570235</v>
+        <v>52.36296531570243</v>
       </c>
       <c r="G31" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="H31" t="n">
-        <v>50.43198475849271</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="I31" t="n">
-        <v>50.43198475849271</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="J31" t="n">
-        <v>50.43198475849271</v>
+        <v>56.01629234701057</v>
       </c>
       <c r="K31" t="n">
-        <v>54.45598810969702</v>
+        <v>60.04029569821488</v>
       </c>
       <c r="L31" t="n">
-        <v>233.0104723907799</v>
+        <v>120.7160691748542</v>
       </c>
       <c r="M31" t="n">
-        <v>307.3736912452068</v>
+        <v>195.0792880292811</v>
       </c>
       <c r="N31" t="n">
-        <v>385.4033353870952</v>
+        <v>383.4723548298865</v>
       </c>
       <c r="O31" t="n">
-        <v>441.4600457015143</v>
+        <v>439.5290651443056</v>
       </c>
       <c r="P31" t="n">
-        <v>630.0996822039783</v>
+        <v>628.1687016467695</v>
       </c>
       <c r="Q31" t="n">
-        <v>630.0996822039783</v>
+        <v>628.1687016467695</v>
       </c>
       <c r="R31" t="n">
-        <v>628.8379199284906</v>
+        <v>626.9069393712816</v>
       </c>
       <c r="S31" t="n">
-        <v>574.0764741001327</v>
+        <v>572.1454935429236</v>
       </c>
       <c r="T31" t="n">
-        <v>512.3345811570041</v>
+        <v>510.403600599795</v>
       </c>
       <c r="U31" t="n">
-        <v>390.6638533851511</v>
+        <v>388.7328728279418</v>
       </c>
       <c r="V31" t="n">
-        <v>303.5072898414463</v>
+        <v>301.576309284237</v>
       </c>
       <c r="W31" t="n">
-        <v>181.6180444666678</v>
+        <v>179.6870639094585</v>
       </c>
       <c r="X31" t="n">
-        <v>121.1564182308326</v>
+        <v>119.2254376736232</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.89176374948467</v>
+        <v>65.96078319227519</v>
       </c>
     </row>
     <row r="32">
@@ -6692,10 +6692,10 @@
         <v>245.9770270864818</v>
       </c>
       <c r="H32" t="n">
-        <v>75.82835594927619</v>
+        <v>75.82835594927616</v>
       </c>
       <c r="I32" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J32" t="n">
         <v>245.2547093134017</v>
@@ -6704,22 +6704,22 @@
         <v>411.9038536988123</v>
       </c>
       <c r="L32" t="n">
-        <v>778.4330085866818</v>
+        <v>835.1175999379099</v>
       </c>
       <c r="M32" t="n">
-        <v>1247.442916106617</v>
+        <v>1139.93338849644</v>
       </c>
       <c r="N32" t="n">
-        <v>1542.558945253306</v>
+        <v>1599.243536604535</v>
       </c>
       <c r="O32" t="n">
-        <v>1940.235124201946</v>
+        <v>1987.482873875925</v>
       </c>
       <c r="P32" t="n">
-        <v>2266.026396656552</v>
+        <v>2313.27414633053</v>
       </c>
       <c r="Q32" t="n">
-        <v>2474.351488250657</v>
+        <v>2521.599237924635</v>
       </c>
       <c r="R32" t="n">
         <v>2521.599237924635</v>
@@ -6740,7 +6740,7 @@
         <v>1998.94823687547</v>
       </c>
       <c r="X32" t="n">
-        <v>1793.010403276573</v>
+        <v>1793.010403276572</v>
       </c>
       <c r="Y32" t="n">
         <v>1570.398995962943</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>647.8822118090604</v>
+        <v>612.3184577521638</v>
       </c>
       <c r="C33" t="n">
-        <v>473.4291825279334</v>
+        <v>605.3933531332189</v>
       </c>
       <c r="D33" t="n">
-        <v>324.4947728666822</v>
+        <v>605.3933531332189</v>
       </c>
       <c r="E33" t="n">
-        <v>165.2573178612267</v>
+        <v>446.1558981277633</v>
       </c>
       <c r="F33" t="n">
-        <v>165.2573178612267</v>
+        <v>299.6213401546482</v>
       </c>
       <c r="G33" t="n">
-        <v>131.3290402111513</v>
+        <v>161.1636085973099</v>
       </c>
       <c r="H33" t="n">
-        <v>131.3290402111513</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="I33" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J33" t="n">
         <v>74.98079274002654</v>
@@ -6801,28 +6801,28 @@
         <v>1983.679195614904</v>
       </c>
       <c r="R33" t="n">
-        <v>1983.679195614904</v>
+        <v>1899.465441092409</v>
       </c>
       <c r="S33" t="n">
-        <v>1982.862374400103</v>
+        <v>1731.120695215426</v>
       </c>
       <c r="T33" t="n">
-        <v>1949.304464321852</v>
+        <v>1530.034860474992</v>
       </c>
       <c r="U33" t="n">
-        <v>1721.098812759559</v>
+        <v>1350.479209378299</v>
       </c>
       <c r="V33" t="n">
-        <v>1485.946704527817</v>
+        <v>1115.327101146556</v>
       </c>
       <c r="W33" t="n">
-        <v>1231.709347799615</v>
+        <v>861.0897444183544</v>
       </c>
       <c r="X33" t="n">
-        <v>1023.857847594082</v>
+        <v>653.2382442128215</v>
       </c>
       <c r="Y33" t="n">
-        <v>816.0975488291285</v>
+        <v>613.0058701100497</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.77122358142723</v>
+        <v>51.84024302421749</v>
       </c>
       <c r="C34" t="n">
-        <v>52.36296531570241</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="D34" t="n">
-        <v>52.36296531570241</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="E34" t="n">
-        <v>52.36296531570241</v>
+        <v>52.36296531570238</v>
       </c>
       <c r="F34" t="n">
-        <v>52.36296531570241</v>
+        <v>52.36296531570238</v>
       </c>
       <c r="G34" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="H34" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="I34" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="J34" t="n">
-        <v>50.43198475849271</v>
+        <v>50.4319847584927</v>
       </c>
       <c r="K34" t="n">
-        <v>172.3346989141413</v>
+        <v>54.45598810969701</v>
       </c>
       <c r="L34" t="n">
-        <v>397.2045913521853</v>
+        <v>115.1317615863363</v>
       </c>
       <c r="M34" t="n">
-        <v>471.5678102066122</v>
+        <v>189.4949804407633</v>
       </c>
       <c r="N34" t="n">
-        <v>549.5974543485006</v>
+        <v>383.4723548298858</v>
       </c>
       <c r="O34" t="n">
-        <v>605.6541646629197</v>
+        <v>603.7231841057096</v>
       </c>
       <c r="P34" t="n">
-        <v>630.099682203979</v>
+        <v>628.1687016467689</v>
       </c>
       <c r="Q34" t="n">
-        <v>630.099682203979</v>
+        <v>628.1687016467689</v>
       </c>
       <c r="R34" t="n">
-        <v>628.8379199284913</v>
+        <v>626.9069393712812</v>
       </c>
       <c r="S34" t="n">
-        <v>574.0764741001333</v>
+        <v>572.1454935429233</v>
       </c>
       <c r="T34" t="n">
-        <v>512.3345811570045</v>
+        <v>510.4036005997946</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6638533851515</v>
+        <v>388.7328728279415</v>
       </c>
       <c r="V34" t="n">
-        <v>303.5072898414467</v>
+        <v>301.5763092842368</v>
       </c>
       <c r="W34" t="n">
-        <v>181.6180444666681</v>
+        <v>179.6870639094583</v>
       </c>
       <c r="X34" t="n">
-        <v>121.1564182308329</v>
+        <v>119.225437673623</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.89176374948484</v>
+        <v>65.96078319227507</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1124.442589597998</v>
       </c>
       <c r="C35" t="n">
-        <v>954.98046971473</v>
+        <v>954.9804697147299</v>
       </c>
       <c r="D35" t="n">
-        <v>796.2151681651227</v>
+        <v>796.2151681651226</v>
       </c>
       <c r="E35" t="n">
-        <v>609.9273126240216</v>
+        <v>609.9273126240215</v>
       </c>
       <c r="F35" t="n">
-        <v>398.4418048915572</v>
+        <v>398.4418048915571</v>
       </c>
       <c r="G35" t="n">
         <v>178.9548980982834</v>
@@ -6935,25 +6935,25 @@
         <v>47.22393614625332</v>
       </c>
       <c r="J35" t="n">
-        <v>77.85254173975764</v>
+        <v>273.3828808954637</v>
       </c>
       <c r="K35" t="n">
-        <v>244.5016861251682</v>
+        <v>440.0320252808743</v>
       </c>
       <c r="L35" t="n">
-        <v>608.7322856721732</v>
+        <v>894.5819917142732</v>
       </c>
       <c r="M35" t="n">
-        <v>913.5480742307034</v>
+        <v>1199.397780272803</v>
       </c>
       <c r="N35" t="n">
-        <v>1208.664103377393</v>
+        <v>1494.513809419493</v>
       </c>
       <c r="O35" t="n">
-        <v>1637.676502520334</v>
+        <v>1727.995869406729</v>
       </c>
       <c r="P35" t="n">
-        <v>1799.273656013535</v>
+        <v>1889.593022899929</v>
       </c>
       <c r="Q35" t="n">
         <v>2038.934967801942</v>
@@ -6965,10 +6965,10 @@
         <v>2038.934967801942</v>
       </c>
       <c r="T35" t="n">
-        <v>2015.320345191634</v>
+        <v>2015.320345191633</v>
       </c>
       <c r="U35" t="n">
-        <v>1960.977077226981</v>
+        <v>1960.97707722698</v>
       </c>
       <c r="V35" t="n">
         <v>1829.414586940553</v>
@@ -6977,7 +6977,7 @@
         <v>1676.146328727582</v>
       </c>
       <c r="X35" t="n">
-        <v>1502.180967523646</v>
+        <v>1502.180967523645</v>
       </c>
       <c r="Y35" t="n">
         <v>1311.542032604977</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>510.7006962715321</v>
+        <v>387.30406843673</v>
       </c>
       <c r="C36" t="n">
-        <v>336.2476669904052</v>
+        <v>387.30406843673</v>
       </c>
       <c r="D36" t="n">
-        <v>187.3132573291539</v>
+        <v>387.30406843673</v>
       </c>
       <c r="E36" t="n">
-        <v>187.3132573291539</v>
+        <v>228.0666134312745</v>
       </c>
       <c r="F36" t="n">
-        <v>40.77869935603884</v>
+        <v>121.6757548086975</v>
       </c>
       <c r="G36" t="n">
-        <v>40.77869935603884</v>
+        <v>121.6757548086975</v>
       </c>
       <c r="H36" t="n">
-        <v>40.77869935603884</v>
+        <v>121.6757548086975</v>
       </c>
       <c r="I36" t="n">
         <v>40.77869935603884</v>
@@ -7038,28 +7038,28 @@
         <v>1974.025910212451</v>
       </c>
       <c r="R36" t="n">
-        <v>1974.025910212451</v>
+        <v>1889.812155689955</v>
       </c>
       <c r="S36" t="n">
-        <v>1805.681164335468</v>
+        <v>1889.812155689955</v>
       </c>
       <c r="T36" t="n">
-        <v>1604.595329595034</v>
+        <v>1688.726320949521</v>
       </c>
       <c r="U36" t="n">
-        <v>1376.389678032742</v>
+        <v>1460.520669387229</v>
       </c>
       <c r="V36" t="n">
-        <v>1141.237569800999</v>
+        <v>1225.368561155486</v>
       </c>
       <c r="W36" t="n">
-        <v>895.0274352049437</v>
+        <v>971.1312044272847</v>
       </c>
       <c r="X36" t="n">
-        <v>687.1759349994109</v>
+        <v>763.2797042217519</v>
       </c>
       <c r="Y36" t="n">
-        <v>678.9160332916001</v>
+        <v>555.519405456798</v>
       </c>
     </row>
     <row r="37">
@@ -7087,31 +7087,31 @@
         <v>40.77869935603884</v>
       </c>
       <c r="H37" t="n">
-        <v>77.69922713885811</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="I37" t="n">
-        <v>80.32268109068009</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="J37" t="n">
-        <v>80.32268109068009</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="K37" t="n">
-        <v>84.34668444188439</v>
+        <v>44.80270270724314</v>
       </c>
       <c r="L37" t="n">
-        <v>145.0224579185237</v>
+        <v>105.4784761838825</v>
       </c>
       <c r="M37" t="n">
-        <v>219.3856767729507</v>
+        <v>179.8416950383094</v>
       </c>
       <c r="N37" t="n">
-        <v>297.4153209148391</v>
+        <v>257.8713391801978</v>
       </c>
       <c r="O37" t="n">
-        <v>353.4720312292582</v>
+        <v>313.9280494946169</v>
       </c>
       <c r="P37" t="n">
-        <v>377.9175487703174</v>
+        <v>338.3735670356762</v>
       </c>
       <c r="Q37" t="n">
         <v>377.9175487703174</v>
@@ -7169,25 +7169,25 @@
         <v>40.77869935603884</v>
       </c>
       <c r="I38" t="n">
-        <v>47.22393614625332</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="J38" t="n">
-        <v>77.85254173975764</v>
+        <v>266.9376441052492</v>
       </c>
       <c r="K38" t="n">
-        <v>244.5016861251682</v>
+        <v>466.6590276819067</v>
       </c>
       <c r="L38" t="n">
-        <v>699.0516525585671</v>
+        <v>725.6786549595995</v>
       </c>
       <c r="M38" t="n">
-        <v>1199.397780272803</v>
+        <v>1030.49444351813</v>
       </c>
       <c r="N38" t="n">
-        <v>1494.513809419493</v>
+        <v>1325.610472664819</v>
       </c>
       <c r="O38" t="n">
-        <v>1727.995869406729</v>
+        <v>1754.622871807761</v>
       </c>
       <c r="P38" t="n">
         <v>1916.220025300961</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>670.8888111594538</v>
+        <v>303.1730770822426</v>
       </c>
       <c r="C39" t="n">
-        <v>496.4357818783268</v>
+        <v>303.1730770822426</v>
       </c>
       <c r="D39" t="n">
-        <v>496.4357818783268</v>
+        <v>154.2386674209913</v>
       </c>
       <c r="E39" t="n">
-        <v>337.1983268728713</v>
+        <v>154.2386674209913</v>
       </c>
       <c r="F39" t="n">
-        <v>289.9680547521944</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="G39" t="n">
-        <v>151.5103231948561</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="H39" t="n">
         <v>40.77869935603884</v>
@@ -7296,7 +7296,7 @@
         <v>679.1487128672645</v>
       </c>
       <c r="Y39" t="n">
-        <v>670.8888111594538</v>
+        <v>471.3884141023106</v>
       </c>
     </row>
     <row r="40">
@@ -7345,7 +7345,7 @@
         <v>257.8713391801978</v>
       </c>
       <c r="O40" t="n">
-        <v>353.4720312292582</v>
+        <v>313.9280494946169</v>
       </c>
       <c r="P40" t="n">
         <v>377.9175487703174</v>
@@ -7406,31 +7406,31 @@
         <v>40.77869935603884</v>
       </c>
       <c r="I41" t="n">
-        <v>47.22393614625341</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="J41" t="n">
-        <v>273.3828808954638</v>
+        <v>71.40730494954315</v>
       </c>
       <c r="K41" t="n">
-        <v>440.0320252808744</v>
+        <v>238.0564493349538</v>
       </c>
       <c r="L41" t="n">
-        <v>699.0516525585672</v>
+        <v>692.6064157683527</v>
       </c>
       <c r="M41" t="n">
-        <v>1003.867441117097</v>
+        <v>997.4222043268828</v>
       </c>
       <c r="N41" t="n">
-        <v>1298.983470263787</v>
+        <v>1292.538233473573</v>
       </c>
       <c r="O41" t="n">
-        <v>1727.995869406729</v>
+        <v>1526.020293460808</v>
       </c>
       <c r="P41" t="n">
-        <v>1994.803995169241</v>
+        <v>1883.147786109715</v>
       </c>
       <c r="Q41" t="n">
-        <v>2038.934967801942</v>
+        <v>1960.350997933661</v>
       </c>
       <c r="R41" t="n">
         <v>2038.934967801942</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>851.0901524645507</v>
+        <v>523.4035933038726</v>
       </c>
       <c r="C42" t="n">
-        <v>676.6371231834237</v>
+        <v>348.9505640227456</v>
       </c>
       <c r="D42" t="n">
-        <v>676.6371231834237</v>
+        <v>200.0161543614943</v>
       </c>
       <c r="E42" t="n">
-        <v>517.3996681779681</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="F42" t="n">
-        <v>370.8651102048531</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="G42" t="n">
-        <v>232.4073786475147</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="H42" t="n">
-        <v>121.6757548086975</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="I42" t="n">
         <v>40.77869935603884</v>
@@ -7512,28 +7512,28 @@
         <v>1974.025910212451</v>
       </c>
       <c r="R42" t="n">
-        <v>1889.812155689955</v>
+        <v>1974.025910212451</v>
       </c>
       <c r="S42" t="n">
-        <v>1721.467409812972</v>
+        <v>1974.025910212451</v>
       </c>
       <c r="T42" t="n">
-        <v>1719.881972129682</v>
+        <v>1772.940075472017</v>
       </c>
       <c r="U42" t="n">
-        <v>1491.676320567389</v>
+        <v>1596.620194254372</v>
       </c>
       <c r="V42" t="n">
-        <v>1321.438911106096</v>
+        <v>1361.468086022629</v>
       </c>
       <c r="W42" t="n">
-        <v>1067.201554377894</v>
+        <v>1107.230729294427</v>
       </c>
       <c r="X42" t="n">
-        <v>859.3500541723613</v>
+        <v>899.3792290888946</v>
       </c>
       <c r="Y42" t="n">
-        <v>851.0901524645507</v>
+        <v>691.6189303239407</v>
       </c>
     </row>
     <row r="43">
@@ -7552,43 +7552,43 @@
         <v>40.77869935603884</v>
       </c>
       <c r="E43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="F43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="G43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="H43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="I43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77869935603884</v>
+        <v>50.22311410258357</v>
       </c>
       <c r="K43" t="n">
-        <v>44.80270270724314</v>
+        <v>54.24711745378788</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4784761838825</v>
+        <v>114.9228909304272</v>
       </c>
       <c r="M43" t="n">
-        <v>179.8416950383094</v>
+        <v>189.2861097848541</v>
       </c>
       <c r="N43" t="n">
-        <v>257.8713391801978</v>
+        <v>267.3157539267426</v>
       </c>
       <c r="O43" t="n">
-        <v>313.9280494946169</v>
+        <v>323.3724642411617</v>
       </c>
       <c r="P43" t="n">
-        <v>338.3735670356762</v>
+        <v>347.8179817822209</v>
       </c>
       <c r="Q43" t="n">
-        <v>377.9175487703168</v>
+        <v>347.8179817822209</v>
       </c>
       <c r="R43" t="n">
         <v>377.9175487703168</v>
@@ -7649,25 +7649,25 @@
         <v>77.85254173975767</v>
       </c>
       <c r="K44" t="n">
-        <v>244.5016861251683</v>
+        <v>440.0320252808743</v>
       </c>
       <c r="L44" t="n">
-        <v>699.0516525585671</v>
+        <v>699.0516525585672</v>
       </c>
       <c r="M44" t="n">
         <v>1003.867441117097</v>
       </c>
       <c r="N44" t="n">
-        <v>1325.610472664819</v>
+        <v>1298.983470263787</v>
       </c>
       <c r="O44" t="n">
-        <v>1559.092532652054</v>
+        <v>1727.995869406729</v>
       </c>
       <c r="P44" t="n">
-        <v>1720.689686145255</v>
+        <v>1889.593022899929</v>
       </c>
       <c r="Q44" t="n">
-        <v>1960.350997933661</v>
+        <v>2038.934967801942</v>
       </c>
       <c r="R44" t="n">
         <v>2038.934967801942</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>617.9601166740335</v>
+        <v>808.395882834326</v>
       </c>
       <c r="C45" t="n">
-        <v>617.9601166740335</v>
+        <v>633.942853553199</v>
       </c>
       <c r="D45" t="n">
-        <v>530.1025652103085</v>
+        <v>485.0084438919477</v>
       </c>
       <c r="E45" t="n">
-        <v>370.8651102048531</v>
+        <v>325.7709888864922</v>
       </c>
       <c r="F45" t="n">
-        <v>370.8651102048531</v>
+        <v>179.2364309133772</v>
       </c>
       <c r="G45" t="n">
-        <v>232.4073786475147</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="H45" t="n">
-        <v>121.6757548086975</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="I45" t="n">
         <v>40.77869935603884</v>
@@ -7749,28 +7749,28 @@
         <v>1974.025910212451</v>
       </c>
       <c r="R45" t="n">
-        <v>1889.812155689955</v>
+        <v>1974.025910212451</v>
       </c>
       <c r="S45" t="n">
-        <v>1721.467409812972</v>
+        <v>1805.681164335468</v>
       </c>
       <c r="T45" t="n">
-        <v>1520.381575072538</v>
+        <v>1604.595329595034</v>
       </c>
       <c r="U45" t="n">
-        <v>1491.676320567389</v>
+        <v>1575.890075089885</v>
       </c>
       <c r="V45" t="n">
-        <v>1256.524212335647</v>
+        <v>1340.737966858142</v>
       </c>
       <c r="W45" t="n">
-        <v>1201.787252664588</v>
+        <v>1086.500610129941</v>
       </c>
       <c r="X45" t="n">
-        <v>993.9357524590555</v>
+        <v>878.6491099244079</v>
       </c>
       <c r="Y45" t="n">
-        <v>786.1754536941016</v>
+        <v>808.395882834326</v>
       </c>
     </row>
     <row r="46">
@@ -7783,43 +7783,43 @@
         <v>40.77869935603884</v>
       </c>
       <c r="C46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="D46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="E46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="F46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="G46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="H46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="I46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="J46" t="n">
-        <v>70.73468562410335</v>
+        <v>40.77869935603884</v>
       </c>
       <c r="K46" t="n">
-        <v>74.75868897530765</v>
+        <v>44.80270270724314</v>
       </c>
       <c r="L46" t="n">
-        <v>135.434462451947</v>
+        <v>105.4784761838825</v>
       </c>
       <c r="M46" t="n">
-        <v>209.7976813063739</v>
+        <v>179.8416950383094</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4153209148388</v>
+        <v>257.8713391801978</v>
       </c>
       <c r="O46" t="n">
-        <v>353.4720312292579</v>
+        <v>313.9280494946169</v>
       </c>
       <c r="P46" t="n">
         <v>377.9175487703172</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>138.1586297240896</v>
       </c>
       <c r="K11" t="n">
         <v>155.8129434949924</v>
       </c>
       <c r="L11" t="n">
-        <v>196.3011727830184</v>
+        <v>276.6912949319391</v>
       </c>
       <c r="M11" t="n">
-        <v>262.2848651057986</v>
+        <v>141.6187975751253</v>
       </c>
       <c r="N11" t="n">
-        <v>139.2499252739136</v>
+        <v>259.9159928045869</v>
       </c>
       <c r="O11" t="n">
-        <v>265.6257841598476</v>
+        <v>265.6257841598475</v>
       </c>
       <c r="P11" t="n">
-        <v>279.235327729226</v>
+        <v>274.3599310613199</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>167.738250626874</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.2942596014858</v>
       </c>
       <c r="K12" t="n">
-        <v>214.8498237029914</v>
+        <v>214.8498237029913</v>
       </c>
       <c r="L12" t="n">
-        <v>170.8451326836832</v>
+        <v>200.5173050905121</v>
       </c>
       <c r="M12" t="n">
-        <v>73.63023579957732</v>
+        <v>194.2963033302506</v>
       </c>
       <c r="N12" t="n">
         <v>61.02482226400443</v>
       </c>
       <c r="O12" t="n">
-        <v>198.9360953099273</v>
+        <v>89.45359523011085</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0130149717505</v>
+        <v>82.34694744107705</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.4701843239387</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>138.1586297240896</v>
       </c>
       <c r="K14" t="n">
-        <v>240.6656289097757</v>
+        <v>276.4790110256657</v>
       </c>
       <c r="L14" t="n">
         <v>156.0252274012658</v>
       </c>
       <c r="M14" t="n">
-        <v>262.2848651057986</v>
+        <v>257.4094684378925</v>
       </c>
       <c r="N14" t="n">
-        <v>259.9159928045871</v>
+        <v>139.2499252739136</v>
       </c>
       <c r="O14" t="n">
-        <v>265.6257841598476</v>
+        <v>265.6257841598475</v>
       </c>
       <c r="P14" t="n">
-        <v>158.5692601985526</v>
+        <v>279.2353277292259</v>
       </c>
       <c r="Q14" t="n">
         <v>167.738250626874</v>
@@ -9006,25 +9006,25 @@
         <v>101.2942596014858</v>
       </c>
       <c r="K15" t="n">
-        <v>94.18375617231796</v>
+        <v>209.9744270350853</v>
       </c>
       <c r="L15" t="n">
-        <v>200.5173050905123</v>
+        <v>79.85123755983884</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2963033302507</v>
+        <v>194.2963033302506</v>
       </c>
       <c r="N15" t="n">
-        <v>61.02482226400443</v>
+        <v>181.6908897946777</v>
       </c>
       <c r="O15" t="n">
-        <v>89.45359523011096</v>
+        <v>78.27002777925391</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0130149717505</v>
+        <v>203.0130149717504</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.4701843239387</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>276.4790110256658</v>
+        <v>240.6656289097755</v>
       </c>
       <c r="L17" t="n">
         <v>156.0252274012658</v>
       </c>
       <c r="M17" t="n">
-        <v>262.2848651057987</v>
+        <v>262.2848651057985</v>
       </c>
       <c r="N17" t="n">
         <v>139.2499252739136</v>
       </c>
       <c r="O17" t="n">
-        <v>185.2356620109268</v>
+        <v>265.6257841598475</v>
       </c>
       <c r="P17" t="n">
-        <v>279.235327729226</v>
+        <v>279.2353277292259</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>167.738250626874</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.2942596014858</v>
       </c>
       <c r="K18" t="n">
-        <v>94.18375617231796</v>
+        <v>214.8498237029913</v>
       </c>
       <c r="L18" t="n">
-        <v>200.5173050905123</v>
+        <v>79.85123755983884</v>
       </c>
       <c r="M18" t="n">
-        <v>73.63023579957732</v>
+        <v>194.2963033302506</v>
       </c>
       <c r="N18" t="n">
-        <v>181.6908897946778</v>
+        <v>61.02482226400443</v>
       </c>
       <c r="O18" t="n">
-        <v>198.9360953099273</v>
+        <v>194.0606986420212</v>
       </c>
       <c r="P18" t="n">
-        <v>173.3408425649214</v>
+        <v>203.0130149717504</v>
       </c>
       <c r="Q18" t="n">
         <v>105.4701843239387</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>138.1586297240896</v>
       </c>
       <c r="K20" t="n">
-        <v>155.8129434949924</v>
+        <v>271.6036143577597</v>
       </c>
       <c r="L20" t="n">
-        <v>156.0252274012658</v>
+        <v>276.6912949319391</v>
       </c>
       <c r="M20" t="n">
-        <v>262.2848651057987</v>
+        <v>262.2848651057985</v>
       </c>
       <c r="N20" t="n">
-        <v>224.1026106886969</v>
+        <v>139.2499252739136</v>
       </c>
       <c r="O20" t="n">
-        <v>265.6257841598476</v>
+        <v>265.6257841598475</v>
       </c>
       <c r="P20" t="n">
-        <v>279.235327729226</v>
+        <v>158.5692601985526</v>
       </c>
       <c r="Q20" t="n">
         <v>167.738250626874</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.2942596014858</v>
       </c>
       <c r="K21" t="n">
-        <v>201.2366154149254</v>
+        <v>94.18375617231796</v>
       </c>
       <c r="L21" t="n">
-        <v>79.85123755983884</v>
+        <v>200.5173050905121</v>
       </c>
       <c r="M21" t="n">
-        <v>73.63023579957732</v>
+        <v>194.2963033302506</v>
       </c>
       <c r="N21" t="n">
-        <v>181.6908897946778</v>
+        <v>181.6908897946777</v>
       </c>
       <c r="O21" t="n">
-        <v>198.9360953099273</v>
+        <v>194.0606986420212</v>
       </c>
       <c r="P21" t="n">
         <v>82.34694744107705</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.4701843239387</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,19 +9641,19 @@
         <v>155.8129434949924</v>
       </c>
       <c r="L23" t="n">
-        <v>156.0252274012658</v>
+        <v>276.6912949319391</v>
       </c>
       <c r="M23" t="n">
-        <v>181.8947429568778</v>
+        <v>262.2848651057985</v>
       </c>
       <c r="N23" t="n">
-        <v>259.9159928045871</v>
+        <v>179.5258706556661</v>
       </c>
       <c r="O23" t="n">
-        <v>265.6257841598476</v>
+        <v>265.6257841598475</v>
       </c>
       <c r="P23" t="n">
-        <v>279.235327729226</v>
+        <v>158.5692601985526</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>112.4778270523428</v>
+        <v>101.2942596014858</v>
       </c>
       <c r="K24" t="n">
-        <v>214.8498237029914</v>
+        <v>214.8498237029913</v>
       </c>
       <c r="L24" t="n">
         <v>79.85123755983884</v>
       </c>
       <c r="M24" t="n">
-        <v>73.63023579957732</v>
+        <v>189.4209066623446</v>
       </c>
       <c r="N24" t="n">
-        <v>61.02482226400443</v>
+        <v>181.6908897946777</v>
       </c>
       <c r="O24" t="n">
-        <v>198.9360953099273</v>
+        <v>198.9360953099272</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0130149717505</v>
+        <v>82.34694744107705</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.4701843239387</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.1159660623011</v>
+        <v>128.5206465516833</v>
       </c>
       <c r="C11" t="n">
         <v>165.6550161698281</v>
@@ -23270,7 +23270,7 @@
         <v>207.258170140532</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1628767993136</v>
+        <v>94.51348768006018</v>
       </c>
       <c r="H11" t="n">
         <v>134.6819542402144</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.26599386959715</v>
       </c>
       <c r="U11" t="n">
-        <v>51.68735277039929</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.468315338282039</v>
+        <v>128.1343828689554</v>
       </c>
       <c r="W11" t="n">
-        <v>28.95702558556015</v>
+        <v>28.95702558556025</v>
       </c>
       <c r="X11" t="n">
-        <v>49.44715754661615</v>
+        <v>49.44715754661627</v>
       </c>
       <c r="Y11" t="n">
-        <v>186.6200630548742</v>
+        <v>186.6200630548741</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183.1159660623012</v>
+        <v>183.115966062301</v>
       </c>
       <c r="C14" t="n">
-        <v>165.6550161698282</v>
+        <v>44.9889486391547</v>
       </c>
       <c r="D14" t="n">
-        <v>155.0651660195036</v>
+        <v>155.0651660195034</v>
       </c>
       <c r="E14" t="n">
-        <v>182.3124944710824</v>
+        <v>182.3124944710822</v>
       </c>
       <c r="F14" t="n">
-        <v>207.2581701405321</v>
+        <v>207.2581701405319</v>
       </c>
       <c r="G14" t="n">
-        <v>94.51348768006017</v>
+        <v>160.5842357001156</v>
       </c>
       <c r="H14" t="n">
-        <v>14.01588670954105</v>
+        <v>134.6819542402143</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.26599386959727</v>
+        <v>21.26599386959707</v>
       </c>
       <c r="U14" t="n">
-        <v>51.68735277039938</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.46831533828211</v>
+        <v>7.468315338282054</v>
       </c>
       <c r="W14" t="n">
-        <v>149.6230931162337</v>
+        <v>28.95702558556016</v>
       </c>
       <c r="X14" t="n">
-        <v>170.1132250772897</v>
+        <v>170.1132250772895</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.33739077385714</v>
+        <v>186.620063054874</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715632.7069593691</v>
+        <v>715632.7069593692</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453348</v>
+        <v>737348.7048453343</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="E2" t="n">
         <v>632736.196048514</v>
       </c>
       <c r="F2" t="n">
-        <v>632736.1960485138</v>
+        <v>632736.1960485139</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="H2" t="n">
         <v>738937.5928778549</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778539</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.592877854</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778544</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778541</v>
       </c>
       <c r="O2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296706.3077626922</v>
+        <v>296706.3077626921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>102507.5062951645</v>
+        <v>102507.5062951643</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>102507.5062951644</v>
+        <v>102507.5062951643</v>
       </c>
       <c r="M3" t="n">
-        <v>25322.1981368092</v>
+        <v>25322.19813680917</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30174.61003728383</v>
+        <v>30174.61003728386</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>421126.7697157806</v>
       </c>
       <c r="K4" t="n">
-        <v>421126.7697157808</v>
+        <v>421126.7697157807</v>
       </c>
       <c r="L4" t="n">
         <v>421126.7697157807</v>
@@ -26454,7 +26454,7 @@
         <v>420562.1442580576</v>
       </c>
       <c r="O4" t="n">
-        <v>420562.1442580576</v>
+        <v>420562.1442580577</v>
       </c>
       <c r="P4" t="n">
         <v>420562.1442580576</v>
@@ -26479,13 +26479,13 @@
         <v>26858.32401467814</v>
       </c>
       <c r="F5" t="n">
-        <v>26858.32401467813</v>
+        <v>26858.32401467814</v>
       </c>
       <c r="G5" t="n">
-        <v>37630.45344808836</v>
+        <v>37630.45344808834</v>
       </c>
       <c r="H5" t="n">
-        <v>37630.45344808836</v>
+        <v>37630.45344808835</v>
       </c>
       <c r="I5" t="n">
         <v>37630.45344808835</v>
@@ -26494,7 +26494,7 @@
         <v>55011.52638879282</v>
       </c>
       <c r="K5" t="n">
-        <v>55011.52638879284</v>
+        <v>55011.52638879282</v>
       </c>
       <c r="L5" t="n">
         <v>55011.52638879283</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240570.3737432249</v>
+        <v>240565.9601653566</v>
       </c>
       <c r="C6" t="n">
-        <v>240570.373743225</v>
+        <v>240565.9601653564</v>
       </c>
       <c r="D6" t="n">
-        <v>240570.3737432249</v>
+        <v>240565.9601653566</v>
       </c>
       <c r="E6" t="n">
-        <v>-44659.56103756326</v>
+        <v>-44954.5649176447</v>
       </c>
       <c r="F6" t="n">
-        <v>252046.7467251288</v>
+        <v>251751.7428450473</v>
       </c>
       <c r="G6" t="n">
-        <v>177624.7775170823</v>
+        <v>177624.7775170825</v>
       </c>
       <c r="H6" t="n">
         <v>280132.2838122469</v>
       </c>
       <c r="I6" t="n">
-        <v>280132.2838122468</v>
+        <v>280132.2838122467</v>
       </c>
       <c r="J6" t="n">
-        <v>99255.91155710418</v>
+        <v>99255.91155710383</v>
       </c>
       <c r="K6" t="n">
-        <v>262799.2967732804</v>
+        <v>262799.2967732808</v>
       </c>
       <c r="L6" t="n">
         <v>160291.7904781164</v>
       </c>
       <c r="M6" t="n">
-        <v>242717.2061561056</v>
+        <v>242717.2061561057</v>
       </c>
       <c r="N6" t="n">
-        <v>268039.4042929144</v>
+        <v>268039.4042929147</v>
       </c>
       <c r="O6" t="n">
         <v>237864.794255631</v>
       </c>
       <c r="P6" t="n">
-        <v>268039.4042929146</v>
+        <v>268039.4042929148</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="F2" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="G2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="H2" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="I2" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="J2" t="n">
         <v>165.8526454155602</v>
       </c>
       <c r="K2" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="L2" t="n">
         <v>165.8526454155603</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="F4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="G4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="H4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="I4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="J4" t="n">
-        <v>630.3998094811589</v>
+        <v>630.3998094811587</v>
       </c>
       <c r="K4" t="n">
-        <v>630.3998094811589</v>
+        <v>630.3998094811587</v>
       </c>
       <c r="L4" t="n">
-        <v>630.3998094811589</v>
+        <v>630.3998094811587</v>
       </c>
       <c r="M4" t="n">
         <v>509.7337419504854</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1343828689556</v>
+        <v>128.1343828689554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.71826254660471</v>
+        <v>37.71826254660473</v>
       </c>
       <c r="K2" t="n">
         <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>128.1343828689555</v>
+        <v>128.1343828689554</v>
       </c>
       <c r="M2" t="n">
-        <v>31.6527476710115</v>
+        <v>31.65274767101147</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.71826254660479</v>
+        <v>37.71826254660482</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>128.1343828689556</v>
+        <v>128.1343828689554</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.71826254660471</v>
+        <v>37.71826254660473</v>
       </c>
       <c r="P2" t="n">
         <v>6.431426819679991e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="C11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="D11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="E11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="F11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="G11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="H11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="I11" t="n">
         <v>190.9950528944359</v>
@@ -28141,22 +28141,22 @@
         <v>197.5053930865718</v>
       </c>
       <c r="T11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="U11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="V11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="W11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="X11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.50931198530778</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6612984182131</v>
+        <v>45.99523088753983</v>
       </c>
       <c r="T12" t="n">
         <v>199.0749763930296</v>
       </c>
       <c r="U12" t="n">
-        <v>199.6178756011794</v>
+        <v>105.2575275159959</v>
       </c>
       <c r="V12" t="n">
-        <v>199.6178756011794</v>
+        <v>112.134519618752</v>
       </c>
       <c r="W12" t="n">
-        <v>131.0289156302462</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="X12" t="n">
-        <v>85.10691767280404</v>
+        <v>157.6322406583255</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="13">
@@ -28257,7 +28257,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2768426510723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.7643161671979</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.1820918452933</v>
+        <v>92.03788647343426</v>
       </c>
       <c r="R13" t="n">
         <v>167.1017900682932</v>
       </c>
       <c r="S13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="T13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="U13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="V13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="W13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="X13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.6178756011794</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="C14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="D14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="E14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="F14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="G14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="H14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="I14" t="n">
         <v>190.9950528944359</v>
@@ -28378,22 +28378,22 @@
         <v>197.5053930865718</v>
       </c>
       <c r="T14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="U14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="V14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="W14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="X14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.86711611919391</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -28421,10 +28421,10 @@
         <v>137.073154241765</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>166.6612984182131</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0749763930296</v>
+        <v>78.4089088623563</v>
       </c>
       <c r="U15" t="n">
-        <v>199.6178756011793</v>
+        <v>105.2575275159959</v>
       </c>
       <c r="V15" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="W15" t="n">
-        <v>199.6178756011793</v>
+        <v>184.6598426042732</v>
       </c>
       <c r="X15" t="n">
-        <v>199.6178756011793</v>
+        <v>85.10691767280417</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.5009290892756</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="16">
@@ -28494,7 +28494,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>170.276842651073</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7643161671979</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>24.85579462814031</v>
       </c>
       <c r="Q16" t="n">
         <v>67.1820918452933</v>
@@ -28533,25 +28533,25 @@
         <v>167.1017900682932</v>
       </c>
       <c r="S16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="T16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="U16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="V16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="W16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="X16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.6178756011793</v>
+        <v>199.6178756011795</v>
       </c>
     </row>
     <row r="17">
@@ -28655,7 +28655,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>16.40708671109154</v>
+        <v>137.073154241765</v>
       </c>
       <c r="H18" t="n">
         <v>109.624307600429</v>
@@ -28691,25 +28691,25 @@
         <v>83.37161697727053</v>
       </c>
       <c r="S18" t="n">
-        <v>60.37862613719604</v>
+        <v>60.37862613719615</v>
       </c>
       <c r="T18" t="n">
         <v>199.0749763930296</v>
       </c>
       <c r="U18" t="n">
-        <v>105.2575275159957</v>
+        <v>105.2575275159959</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>131.0289156302462</v>
+        <v>131.0289156302463</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>85.01662824663106</v>
       </c>
     </row>
     <row r="19">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.1820918452933</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>167.1017900682932</v>
@@ -28773,7 +28773,7 @@
         <v>220.0664767856346</v>
       </c>
       <c r="T19" t="n">
-        <v>173.6903354877637</v>
+        <v>120.2063598023834</v>
       </c>
       <c r="U19" t="n">
         <v>286.3066659096949</v>
@@ -28782,13 +28782,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>165.8569308059176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.0435878583637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>97.91858582142149</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="C20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="D20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="E20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="F20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="G20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="H20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="I20" t="n">
         <v>190.9950528944359</v>
@@ -28858,16 +28858,16 @@
         <v>251.3052283715787</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="X20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="Y20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>45.86711611919404</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28886,7 +28886,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>36.97901292472751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -28928,16 +28928,16 @@
         <v>83.37161697727053</v>
       </c>
       <c r="S21" t="n">
-        <v>60.37862613719604</v>
+        <v>45.99523088753983</v>
       </c>
       <c r="T21" t="n">
-        <v>78.40890886235618</v>
+        <v>78.4089088623563</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9235950466692</v>
+        <v>119.6409227656522</v>
       </c>
       <c r="V21" t="n">
-        <v>112.1345196187518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>126.545196240443</v>
       </c>
       <c r="C22" t="n">
-        <v>46.5807535679544</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>24.75498049225781</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7643161671979</v>
@@ -29013,10 +29013,10 @@
         <v>226.9771194292577</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3066659096949</v>
+        <v>165.6405983790215</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>131.4715757931547</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.2978694106008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="C23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="D23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="E23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="F23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="G23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="H23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="I23" t="n">
         <v>190.9950528944359</v>
@@ -29098,13 +29098,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="X23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
     </row>
     <row r="24">
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>45.86711611919404</v>
       </c>
       <c r="C24" t="n">
-        <v>52.04243145764232</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>36.97901292472753</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -29168,22 +29168,22 @@
         <v>166.6612984182131</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0749763930296</v>
+        <v>78.4089088623563</v>
       </c>
       <c r="U24" t="n">
         <v>225.9235950466692</v>
       </c>
       <c r="V24" t="n">
-        <v>209.8895318456787</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>131.0289156302462</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>182.861929899731</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>85.01662824663106</v>
       </c>
     </row>
     <row r="25">
@@ -29196,10 +29196,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>46.58075356795442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>51.99671404057227</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29217,7 +29217,7 @@
         <v>148.6340945937033</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.33409249452738</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.1820918452933</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>167.1017900682932</v>
@@ -29256,13 +29256,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>179.7522387097167</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>97.91858582142149</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>165.8526454155602</v>
       </c>
       <c r="J26" t="n">
-        <v>165.8526454155602</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>165.8526454155602</v>
@@ -29308,13 +29308,13 @@
         <v>165.8526454155602</v>
       </c>
       <c r="N26" t="n">
-        <v>108.5954824345217</v>
+        <v>108.5954824345212</v>
       </c>
       <c r="O26" t="n">
         <v>165.8526454155602</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>23.39607447005858</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29417,10 +29417,10 @@
         <v>165.8526454155602</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8526454155602</v>
+        <v>85.98425842515275</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>165.8526454155602</v>
       </c>
       <c r="D28" t="n">
-        <v>165.8526454155602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>165.8526454155602</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>165.8526454155602</v>
+        <v>147.3715334342542</v>
       </c>
       <c r="G28" t="n">
         <v>165.8526454155602</v>
@@ -29454,11 +29454,11 @@
         <v>148.6340945937033</v>
       </c>
       <c r="J28" t="n">
+        <v>77.33409249452738</v>
+      </c>
+      <c r="K28" t="n">
         <v>165.8526454155602</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -29469,10 +29469,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>12.80765113550783</v>
       </c>
       <c r="P28" t="n">
-        <v>35.00477648239126</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>165.8526454155602</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="C29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="D29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="E29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="G29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="H29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="I29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="J29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="K29" t="n">
-        <v>165.8526454155603</v>
+        <v>108.5954824345213</v>
       </c>
       <c r="L29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="M29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>165.8526454155603</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>108.5954824345215</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="R29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="S29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="T29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="U29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="V29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="W29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="X29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Y29" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
     </row>
     <row r="30">
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,22 +29639,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8526454155603</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>165.8526454155603</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>109.8440055081531</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>125.1752712982506</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8526454155603</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,25 +29667,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="C31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>148.3844480578921</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="H31" t="n">
-        <v>160.2119306796836</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="I31" t="n">
         <v>148.6340945937033</v>
@@ -29697,46 +29697,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>119.0694048529733</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.4782047057747</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Q31" t="n">
         <v>67.1820918452933</v>
       </c>
       <c r="R31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="S31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="T31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="U31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="V31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="W31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="X31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.8526454155603</v>
+        <v>165.8526454155602</v>
       </c>
     </row>
     <row r="32">
@@ -29776,16 +29776,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>108.5954824345219</v>
+        <v>165.8526454155603</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>165.8526454155603</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
-        <v>165.8526454155603</v>
+        <v>156.3204821052067</v>
       </c>
       <c r="P32" t="n">
         <v>165.8526454155603</v>
@@ -29794,7 +29794,7 @@
         <v>165.8526454155603</v>
       </c>
       <c r="R32" t="n">
-        <v>165.8526454155603</v>
+        <v>118.1276457448745</v>
       </c>
       <c r="S32" t="n">
         <v>165.8526454155603</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.8526454155603</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>165.8526454155603</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>103.4841593681904</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.624307600429</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>48.16350046094308</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>165.8526454155603</v>
-      </c>
-      <c r="T33" t="n">
-        <v>165.8526454155603</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,7 +29913,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>148.3844480578921</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29931,19 +29931,19 @@
         <v>77.33409249452738</v>
       </c>
       <c r="K34" t="n">
-        <v>119.069404852974</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>117.1189194416507</v>
+      </c>
+      <c r="O34" t="n">
         <v>165.8526454155603</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30007,13 +30007,13 @@
         <v>197.5053930865718</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>197.5053930865718</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>106.2737093629416</v>
+        <v>197.5053930865718</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>197.5053930865718</v>
+        <v>106.2737093629413</v>
       </c>
       <c r="R35" t="n">
         <v>118.1276457448745</v>
@@ -30065,16 +30065,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>39.74226235703262</v>
       </c>
       <c r="G36" t="n">
         <v>137.073154241765</v>
@@ -30083,7 +30083,7 @@
         <v>109.624307600429</v>
       </c>
       <c r="I36" t="n">
-        <v>80.08808489813202</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.37161697727053</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6612984182131</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.946949910824941</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,10 +30159,10 @@
         <v>167.7643161671979</v>
       </c>
       <c r="H37" t="n">
-        <v>197.5053930865718</v>
+        <v>160.2119306796836</v>
       </c>
       <c r="I37" t="n">
-        <v>151.2840480803922</v>
+        <v>148.6340945937033</v>
       </c>
       <c r="J37" t="n">
         <v>77.33409249452738</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.1820918452933</v>
+        <v>107.1255077388703</v>
       </c>
       <c r="R37" t="n">
         <v>167.1017900682932</v>
@@ -30241,28 +30241,28 @@
         <v>197.5053930865718</v>
       </c>
       <c r="I38" t="n">
+        <v>190.9950528944359</v>
+      </c>
+      <c r="J38" t="n">
         <v>197.5053930865718</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>33.40630221338068</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>197.5053930865718</v>
       </c>
-      <c r="M38" t="n">
-        <v>197.5053930865718</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>26.89596202124451</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>98.31124299391377</v>
+        <v>32.74384400908093</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.073154241765</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I39" t="n">
         <v>80.08808489813202</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>39.94341589357703</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39.943415893577</v>
       </c>
       <c r="Q40" t="n">
         <v>67.1820918452933</v>
@@ -30478,34 +30478,34 @@
         <v>197.5053930865718</v>
       </c>
       <c r="I41" t="n">
+        <v>190.9950528944359</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>197.5053930865718</v>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>197.5053930865718</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
+        <v>33.40630221337992</v>
+      </c>
+      <c r="R41" t="n">
         <v>197.5053930865718</v>
-      </c>
-      <c r="P41" t="n">
-        <v>106.2737093629413</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>118.1276457448745</v>
       </c>
       <c r="S41" t="n">
         <v>197.5053930865718</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.073154241765</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6612984182131</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>51.36691264120071</v>
       </c>
       <c r="V42" t="n">
-        <v>64.26555178274447</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>155.9737755218669</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.1255077388697</v>
+        <v>67.1820918452933</v>
       </c>
       <c r="R43" t="n">
-        <v>167.1017900682932</v>
+        <v>197.5053930865718</v>
       </c>
       <c r="S43" t="n">
         <v>197.5053930865718</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>197.5053930865718</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>197.5053930865718</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>26.89596202124397</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.5053930865718</v>
+        <v>106.2737093629413</v>
       </c>
       <c r="R44" t="n">
-        <v>197.5053930865718</v>
+        <v>118.1276457448745</v>
       </c>
       <c r="S44" t="n">
         <v>197.5053930865718</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>60.46608961555098</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.624307600429</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.08808489813202</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.37161697727053</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30836,13 +30836,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>197.5053930865718</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>136.1320009581233</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>197.5053930865718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30888,13 +30888,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9.684843905632874</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39.94341589357678</v>
       </c>
       <c r="Q46" t="n">
         <v>67.1820918452933</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.93798544798415</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>40.2759453817526</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="M11" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="O11" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P11" t="n">
-        <v>120.6660675306734</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.57674003303069</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.79677573892307</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="L12" t="n">
-        <v>90.99389512384437</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6660675306734</v>
+        <v>11.18356745085694</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.6071034119104</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.85579462814109</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>24.69244196066592</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.85579462814096</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.93798544798415</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>84.85268541478329</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>120.6660675306734</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="N14" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="L15" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="O15" t="n">
-        <v>11.18356745085706</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.6071034119104</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.85579462814172</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>56.62293971153443</v>
       </c>
       <c r="P16" t="n">
-        <v>24.69244196066592</v>
+        <v>49.54823658880623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>30.93798544798415</v>
       </c>
       <c r="K17" t="n">
-        <v>120.6660675306734</v>
+        <v>84.85268541478314</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>40.27594538175261</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P17" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.57674003303069</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.79677573892307</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="L18" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N18" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>120.6660675306734</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="P18" t="n">
-        <v>90.99389512384434</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.93798544798415</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="M20" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N20" t="n">
-        <v>84.85268541478329</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P20" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.79677573892307</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>107.0528592426074</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N21" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="O21" t="n">
-        <v>120.6660675306734</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.6071034119104</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="M23" t="n">
-        <v>40.27594538175256</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="N23" t="n">
-        <v>120.6660675306734</v>
+        <v>40.27594538175244</v>
       </c>
       <c r="O23" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P23" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>44.57674003303069</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.18356745085703</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>115.7906708627673</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6660675306734</v>
+        <v>120.6660675306733</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6660675306734</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.6071034119104</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.7906308635443</v>
+        <v>30.93798544798415</v>
       </c>
       <c r="K26" t="n">
-        <v>334.1851144917325</v>
+        <v>334.1851144917326</v>
       </c>
       <c r="L26" t="n">
         <v>427.4886325647449</v>
       </c>
       <c r="M26" t="n">
-        <v>473.7473813332674</v>
+        <v>473.7473813332675</v>
       </c>
       <c r="N26" t="n">
-        <v>406.6924815725922</v>
+        <v>406.6924815725917</v>
       </c>
       <c r="O26" t="n">
         <v>401.6931100491313</v>
       </c>
       <c r="P26" t="n">
-        <v>163.22944797293</v>
+        <v>329.0820933884903</v>
       </c>
       <c r="Q26" t="n">
         <v>44.57674003303069</v>
       </c>
       <c r="R26" t="n">
-        <v>47.7249996706857</v>
+        <v>47.72499967068576</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,28 +36732,28 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.23717239734782</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.418682768991</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.43159739262893</v>
+        <v>1.950485411322959</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.640714735876573</v>
+        <v>5.64071473587663</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.51855292103279</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.064649849701318</v>
+        <v>169.9172952652615</v>
       </c>
       <c r="L28" t="n">
         <v>61.28866007741345</v>
@@ -36765,13 +36765,13 @@
         <v>78.81782236554383</v>
       </c>
       <c r="O28" t="n">
-        <v>56.62293971153443</v>
+        <v>69.43059084704225</v>
       </c>
       <c r="P28" t="n">
-        <v>59.69721844305718</v>
+        <v>24.69244196066592</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.67055357026688</v>
+        <v>98.67055357026693</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.7906308635445</v>
+        <v>196.7906308635444</v>
       </c>
       <c r="K29" t="n">
-        <v>334.1851144917327</v>
+        <v>276.9279515106937</v>
       </c>
       <c r="L29" t="n">
-        <v>427.488632564745</v>
+        <v>427.4886325647449</v>
       </c>
       <c r="M29" t="n">
         <v>473.7473813332675</v>
@@ -36844,16 +36844,16 @@
         <v>298.0969991380705</v>
       </c>
       <c r="O29" t="n">
-        <v>401.6931100491315</v>
+        <v>235.8404646335711</v>
       </c>
       <c r="P29" t="n">
-        <v>271.8249304074515</v>
+        <v>329.0820933884903</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.57674003303069</v>
+        <v>210.4293854485909</v>
       </c>
       <c r="R29" t="n">
-        <v>47.72499967068585</v>
+        <v>47.72499967068576</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.950485411322959</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.64071473587663</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>4.064649849701318</v>
       </c>
       <c r="L31" t="n">
-        <v>180.3580649303867</v>
+        <v>61.28866007741345</v>
       </c>
       <c r="M31" t="n">
         <v>75.11436247921914</v>
       </c>
       <c r="N31" t="n">
-        <v>78.81782236554383</v>
+        <v>190.2960270713185</v>
       </c>
       <c r="O31" t="n">
         <v>56.62293971153443</v>
       </c>
       <c r="P31" t="n">
-        <v>190.5450873762262</v>
+        <v>190.5450873762261</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>168.3324690761723</v>
       </c>
       <c r="L32" t="n">
-        <v>370.2314695837065</v>
+        <v>427.488632564745</v>
       </c>
       <c r="M32" t="n">
-        <v>473.7473813332675</v>
+        <v>307.8947359177072</v>
       </c>
       <c r="N32" t="n">
-        <v>298.0969991380705</v>
+        <v>463.9496445536308</v>
       </c>
       <c r="O32" t="n">
-        <v>401.6931100491314</v>
+        <v>392.1609467387778</v>
       </c>
       <c r="P32" t="n">
         <v>329.0820933884903</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.4293854485909</v>
+        <v>210.429385448591</v>
       </c>
       <c r="R32" t="n">
-        <v>47.72499967068579</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.950485411322901</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>123.1340547026754</v>
+        <v>4.064649849701318</v>
       </c>
       <c r="L34" t="n">
-        <v>227.1413054929737</v>
+        <v>61.28866007741345</v>
       </c>
       <c r="M34" t="n">
         <v>75.11436247921914</v>
       </c>
       <c r="N34" t="n">
-        <v>78.81782236554383</v>
+        <v>195.9367418071945</v>
       </c>
       <c r="O34" t="n">
-        <v>56.62293971153443</v>
+        <v>222.4755851270947</v>
       </c>
       <c r="P34" t="n">
         <v>24.69244196066592</v>
@@ -37303,13 +37303,13 @@
         <v>6.510340192135843</v>
       </c>
       <c r="J35" t="n">
-        <v>30.93798544798415</v>
+        <v>228.4433785345559</v>
       </c>
       <c r="K35" t="n">
         <v>168.3324690761723</v>
       </c>
       <c r="L35" t="n">
-        <v>367.9096965121263</v>
+        <v>459.1413802357564</v>
       </c>
       <c r="M35" t="n">
         <v>307.8947359177072</v>
@@ -37318,13 +37318,13 @@
         <v>298.0969991380705</v>
       </c>
       <c r="O35" t="n">
-        <v>433.3458577201429</v>
+        <v>235.8404646335711</v>
       </c>
       <c r="P35" t="n">
         <v>163.22944797293</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.0821331196024</v>
+        <v>150.850449395972</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>37.29346240688815</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.649953486688875</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>24.69244196066592</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>39.94341589357702</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.510340192135843</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.93798544798415</v>
+        <v>228.4433785345559</v>
       </c>
       <c r="K38" t="n">
-        <v>168.3324690761723</v>
+        <v>201.738771289553</v>
       </c>
       <c r="L38" t="n">
-        <v>459.1413802357564</v>
+        <v>261.6359871491846</v>
       </c>
       <c r="M38" t="n">
-        <v>505.4001290042791</v>
+        <v>307.8947359177072</v>
       </c>
       <c r="N38" t="n">
         <v>298.0969991380705</v>
       </c>
       <c r="O38" t="n">
-        <v>235.8404646335711</v>
+        <v>433.3458577201429</v>
       </c>
       <c r="P38" t="n">
-        <v>190.1254099941746</v>
+        <v>163.22944797293</v>
       </c>
       <c r="Q38" t="n">
         <v>44.57674003303069</v>
@@ -37713,10 +37713,10 @@
         <v>78.81782236554383</v>
       </c>
       <c r="O40" t="n">
-        <v>96.56635560511145</v>
+        <v>56.62293971153443</v>
       </c>
       <c r="P40" t="n">
-        <v>24.69244196066592</v>
+        <v>64.63585785424293</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.510340192135928</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>228.443378534556</v>
+        <v>30.93798544798415</v>
       </c>
       <c r="K41" t="n">
         <v>168.3324690761723</v>
       </c>
       <c r="L41" t="n">
-        <v>261.6359871491846</v>
+        <v>459.1413802357565</v>
       </c>
       <c r="M41" t="n">
         <v>307.8947359177072</v>
@@ -37792,16 +37792,16 @@
         <v>298.0969991380705</v>
       </c>
       <c r="O41" t="n">
-        <v>433.345857720143</v>
+        <v>235.8404646335711</v>
       </c>
       <c r="P41" t="n">
-        <v>269.5031573358714</v>
+        <v>360.7348410595018</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.57674003303069</v>
+        <v>77.98304224641061</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>79.37774734169737</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.539812875297715</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>24.69244196066592</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.94341589357639</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>30.40360301827867</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>30.93798544798415</v>
       </c>
       <c r="K44" t="n">
-        <v>168.3324690761723</v>
+        <v>365.8378621627441</v>
       </c>
       <c r="L44" t="n">
-        <v>459.1413802357564</v>
+        <v>261.6359871491846</v>
       </c>
       <c r="M44" t="n">
         <v>307.8947359177072</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9929611593145</v>
+        <v>298.0969991380705</v>
       </c>
       <c r="O44" t="n">
-        <v>235.8404646335711</v>
+        <v>433.3458577201429</v>
       </c>
       <c r="P44" t="n">
         <v>163.22944797293</v>
       </c>
       <c r="Q44" t="n">
-        <v>242.0821331196025</v>
+        <v>150.850449395972</v>
       </c>
       <c r="R44" t="n">
-        <v>79.37774734169732</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>30.25857198794395</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>75.11436247921914</v>
       </c>
       <c r="N46" t="n">
-        <v>88.50266627117671</v>
+        <v>78.81782236554383</v>
       </c>
       <c r="O46" t="n">
         <v>56.62293971153443</v>
       </c>
       <c r="P46" t="n">
-        <v>24.69244196066592</v>
+        <v>64.6358578542427</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
